--- a/Code/files/all_id_list.xlsx
+++ b/Code/files/all_id_list.xlsx
@@ -19,3004 +19,3004 @@
     <t>ID</t>
   </si>
   <si>
-    <t>S900865254</t>
-  </si>
-  <si>
-    <t>Z164716303</t>
-  </si>
-  <si>
-    <t>A916535691</t>
-  </si>
-  <si>
-    <t>I889664038</t>
-  </si>
-  <si>
-    <t>K283983315</t>
-  </si>
-  <si>
-    <t>I845615644</t>
-  </si>
-  <si>
-    <t>X226862029</t>
-  </si>
-  <si>
-    <t>C138796701</t>
-  </si>
-  <si>
-    <t>H895567910</t>
-  </si>
-  <si>
-    <t>V821228734</t>
-  </si>
-  <si>
-    <t>V941635871</t>
-  </si>
-  <si>
-    <t>X152351282</t>
-  </si>
-  <si>
-    <t>P920390246</t>
-  </si>
-  <si>
-    <t>P261687504</t>
-  </si>
-  <si>
-    <t>L224960578</t>
-  </si>
-  <si>
-    <t>C220481882</t>
-  </si>
-  <si>
-    <t>R229632010</t>
-  </si>
-  <si>
-    <t>G282969345</t>
-  </si>
-  <si>
-    <t>K247646008</t>
-  </si>
-  <si>
-    <t>W805220918</t>
-  </si>
-  <si>
-    <t>G289478132</t>
-  </si>
-  <si>
-    <t>B118155418</t>
-  </si>
-  <si>
-    <t>A840593561</t>
-  </si>
-  <si>
-    <t>J932790592</t>
-  </si>
-  <si>
-    <t>B188473056</t>
-  </si>
-  <si>
-    <t>U892734704</t>
-  </si>
-  <si>
-    <t>M256818700</t>
-  </si>
-  <si>
-    <t>H104948161</t>
-  </si>
-  <si>
-    <t>J853956883</t>
-  </si>
-  <si>
-    <t>R155725762</t>
-  </si>
-  <si>
-    <t>K980689172</t>
-  </si>
-  <si>
-    <t>F206227996</t>
-  </si>
-  <si>
-    <t>J141416021</t>
-  </si>
-  <si>
-    <t>U286875603</t>
-  </si>
-  <si>
-    <t>J901311025</t>
-  </si>
-  <si>
-    <t>N289115886</t>
-  </si>
-  <si>
-    <t>I192216471</t>
-  </si>
-  <si>
-    <t>X285611017</t>
-  </si>
-  <si>
-    <t>J933204102</t>
-  </si>
-  <si>
-    <t>B910656012</t>
-  </si>
-  <si>
-    <t>M224160659</t>
-  </si>
-  <si>
-    <t>Z848774792</t>
-  </si>
-  <si>
-    <t>N181343993</t>
-  </si>
-  <si>
-    <t>L267763902</t>
-  </si>
-  <si>
-    <t>P117249403</t>
-  </si>
-  <si>
-    <t>Q942091798</t>
-  </si>
-  <si>
-    <t>H811997187</t>
-  </si>
-  <si>
-    <t>J261673462</t>
-  </si>
-  <si>
-    <t>F188438506</t>
-  </si>
-  <si>
-    <t>Z898611437</t>
-  </si>
-  <si>
-    <t>G977572085</t>
-  </si>
-  <si>
-    <t>V191443407</t>
-  </si>
-  <si>
-    <t>N265394607</t>
-  </si>
-  <si>
-    <t>A163343609</t>
-  </si>
-  <si>
-    <t>J160823706</t>
-  </si>
-  <si>
-    <t>Q292061148</t>
-  </si>
-  <si>
-    <t>B801550694</t>
-  </si>
-  <si>
-    <t>Q278373123</t>
-  </si>
-  <si>
-    <t>E224550611</t>
-  </si>
-  <si>
-    <t>S298750824</t>
-  </si>
-  <si>
-    <t>K965783768</t>
-  </si>
-  <si>
-    <t>E988716671</t>
-  </si>
-  <si>
-    <t>P167252647</t>
-  </si>
-  <si>
-    <t>O940017669</t>
-  </si>
-  <si>
-    <t>G827490456</t>
-  </si>
-  <si>
-    <t>X815872413</t>
-  </si>
-  <si>
-    <t>K271654774</t>
-  </si>
-  <si>
-    <t>P903967118</t>
-  </si>
-  <si>
-    <t>Z818783407</t>
-  </si>
-  <si>
-    <t>M801069375</t>
-  </si>
-  <si>
-    <t>C254622066</t>
-  </si>
-  <si>
-    <t>X831531588</t>
-  </si>
-  <si>
-    <t>U257961761</t>
-  </si>
-  <si>
-    <t>E188336873</t>
-  </si>
-  <si>
-    <t>G907506222</t>
-  </si>
-  <si>
-    <t>Q222074279</t>
-  </si>
-  <si>
-    <t>A134950734</t>
-  </si>
-  <si>
-    <t>A907108873</t>
-  </si>
-  <si>
-    <t>S284166038</t>
-  </si>
-  <si>
-    <t>E996079196</t>
-  </si>
-  <si>
-    <t>X178236575</t>
-  </si>
-  <si>
-    <t>P828073839</t>
-  </si>
-  <si>
-    <t>Z108118261</t>
-  </si>
-  <si>
-    <t>K818349065</t>
-  </si>
-  <si>
-    <t>U840811258</t>
-  </si>
-  <si>
-    <t>R960972359</t>
-  </si>
-  <si>
-    <t>S297517718</t>
-  </si>
-  <si>
-    <t>I213051650</t>
-  </si>
-  <si>
-    <t>M801143054</t>
-  </si>
-  <si>
-    <t>Q220567646</t>
-  </si>
-  <si>
-    <t>Z909681723</t>
-  </si>
-  <si>
-    <t>L153106200</t>
-  </si>
-  <si>
-    <t>M121817248</t>
-  </si>
-  <si>
-    <t>Z851910417</t>
-  </si>
-  <si>
-    <t>V888207151</t>
-  </si>
-  <si>
-    <t>S892350788</t>
-  </si>
-  <si>
-    <t>W276024919</t>
-  </si>
-  <si>
-    <t>T172664724</t>
-  </si>
-  <si>
-    <t>I993757217</t>
-  </si>
-  <si>
-    <t>T892458655</t>
-  </si>
-  <si>
-    <t>C801227262</t>
-  </si>
-  <si>
-    <t>P944637399</t>
-  </si>
-  <si>
-    <t>M137404202</t>
-  </si>
-  <si>
-    <t>D850912759</t>
-  </si>
-  <si>
-    <t>N122400408</t>
-  </si>
-  <si>
-    <t>F915418356</t>
-  </si>
-  <si>
-    <t>M828777312</t>
-  </si>
-  <si>
-    <t>O892989867</t>
-  </si>
-  <si>
-    <t>Q923199644</t>
-  </si>
-  <si>
-    <t>S207488135</t>
-  </si>
-  <si>
-    <t>H205902483</t>
-  </si>
-  <si>
-    <t>X210025305</t>
-  </si>
-  <si>
-    <t>H109466397</t>
-  </si>
-  <si>
-    <t>T991148983</t>
-  </si>
-  <si>
-    <t>K915677368</t>
-  </si>
-  <si>
-    <t>B237532651</t>
-  </si>
-  <si>
-    <t>T129150157</t>
-  </si>
-  <si>
-    <t>R106366520</t>
-  </si>
-  <si>
-    <t>U214382944</t>
-  </si>
-  <si>
-    <t>Q142575220</t>
-  </si>
-  <si>
-    <t>H114916537</t>
-  </si>
-  <si>
-    <t>B980574847</t>
-  </si>
-  <si>
-    <t>O818071806</t>
-  </si>
-  <si>
-    <t>T211920816</t>
-  </si>
-  <si>
-    <t>D181946781</t>
-  </si>
-  <si>
-    <t>J240038123</t>
-  </si>
-  <si>
-    <t>L130229308</t>
-  </si>
-  <si>
-    <t>M947022638</t>
-  </si>
-  <si>
-    <t>U894264956</t>
-  </si>
-  <si>
-    <t>N140271067</t>
-  </si>
-  <si>
-    <t>Q222610220</t>
-  </si>
-  <si>
-    <t>S213993067</t>
-  </si>
-  <si>
-    <t>E196602804</t>
-  </si>
-  <si>
-    <t>A158325260</t>
-  </si>
-  <si>
-    <t>K253998246</t>
-  </si>
-  <si>
-    <t>U872716255</t>
-  </si>
-  <si>
-    <t>A179468993</t>
-  </si>
-  <si>
-    <t>D917573894</t>
-  </si>
-  <si>
-    <t>F848637154</t>
-  </si>
-  <si>
-    <t>S265774645</t>
-  </si>
-  <si>
-    <t>O999289166</t>
-  </si>
-  <si>
-    <t>U934558662</t>
-  </si>
-  <si>
-    <t>C228591081</t>
-  </si>
-  <si>
-    <t>L146668259</t>
-  </si>
-  <si>
-    <t>W139283489</t>
-  </si>
-  <si>
-    <t>V820512586</t>
-  </si>
-  <si>
-    <t>R167198051</t>
-  </si>
-  <si>
-    <t>W241801864</t>
-  </si>
-  <si>
-    <t>O285558903</t>
-  </si>
-  <si>
-    <t>B181763100</t>
-  </si>
-  <si>
-    <t>B934468603</t>
-  </si>
-  <si>
-    <t>G281173961</t>
-  </si>
-  <si>
-    <t>F804851478</t>
-  </si>
-  <si>
-    <t>H189752105</t>
-  </si>
-  <si>
-    <t>Q106232055</t>
-  </si>
-  <si>
-    <t>A164377949</t>
-  </si>
-  <si>
-    <t>I986630041</t>
-  </si>
-  <si>
-    <t>J200253904</t>
-  </si>
-  <si>
-    <t>F125259818</t>
-  </si>
-  <si>
-    <t>Z245797639</t>
-  </si>
-  <si>
-    <t>F230255600</t>
-  </si>
-  <si>
-    <t>D283212771</t>
-  </si>
-  <si>
-    <t>Z968362183</t>
-  </si>
-  <si>
-    <t>I177416751</t>
-  </si>
-  <si>
-    <t>I124710622</t>
-  </si>
-  <si>
-    <t>H813087193</t>
-  </si>
-  <si>
-    <t>V122371025</t>
-  </si>
-  <si>
-    <t>J824333876</t>
-  </si>
-  <si>
-    <t>B909049378</t>
-  </si>
-  <si>
-    <t>P812001872</t>
-  </si>
-  <si>
-    <t>L234181552</t>
-  </si>
-  <si>
-    <t>Z955786071</t>
-  </si>
-  <si>
-    <t>H953465557</t>
-  </si>
-  <si>
-    <t>A891211661</t>
-  </si>
-  <si>
-    <t>B918892565</t>
-  </si>
-  <si>
-    <t>A902491828</t>
-  </si>
-  <si>
-    <t>X239988130</t>
-  </si>
-  <si>
-    <t>V291217963</t>
-  </si>
-  <si>
-    <t>G818420991</t>
-  </si>
-  <si>
-    <t>G255892468</t>
-  </si>
-  <si>
-    <t>U906563135</t>
-  </si>
-  <si>
-    <t>J999114436</t>
-  </si>
-  <si>
-    <t>P872736690</t>
-  </si>
-  <si>
-    <t>B954623833</t>
-  </si>
-  <si>
-    <t>S826456422</t>
-  </si>
-  <si>
-    <t>U896536508</t>
-  </si>
-  <si>
-    <t>H247564429</t>
-  </si>
-  <si>
-    <t>E252830026</t>
-  </si>
-  <si>
-    <t>X142547598</t>
-  </si>
-  <si>
-    <t>A283301583</t>
-  </si>
-  <si>
-    <t>P954315962</t>
-  </si>
-  <si>
-    <t>U174755649</t>
-  </si>
-  <si>
-    <t>C136064760</t>
-  </si>
-  <si>
-    <t>V962269411</t>
-  </si>
-  <si>
-    <t>G909793616</t>
-  </si>
-  <si>
-    <t>G844268314</t>
-  </si>
-  <si>
-    <t>L247135608</t>
-  </si>
-  <si>
-    <t>F146896099</t>
-  </si>
-  <si>
-    <t>X907994591</t>
-  </si>
-  <si>
-    <t>H143045298</t>
-  </si>
-  <si>
-    <t>C879665729</t>
-  </si>
-  <si>
-    <t>E247204130</t>
-  </si>
-  <si>
-    <t>Z823223230</t>
-  </si>
-  <si>
-    <t>F148133942</t>
-  </si>
-  <si>
-    <t>W277338314</t>
-  </si>
-  <si>
-    <t>Q997336788</t>
-  </si>
-  <si>
-    <t>S813642996</t>
-  </si>
-  <si>
-    <t>B124723762</t>
-  </si>
-  <si>
-    <t>W186518122</t>
-  </si>
-  <si>
-    <t>T820878461</t>
-  </si>
-  <si>
-    <t>W917328403</t>
-  </si>
-  <si>
-    <t>Q163688606</t>
-  </si>
-  <si>
-    <t>I261941021</t>
-  </si>
-  <si>
-    <t>I156433789</t>
-  </si>
-  <si>
-    <t>C998536727</t>
-  </si>
-  <si>
-    <t>V128782380</t>
-  </si>
-  <si>
-    <t>G193758749</t>
-  </si>
-  <si>
-    <t>D218855239</t>
-  </si>
-  <si>
-    <t>E815525988</t>
-  </si>
-  <si>
-    <t>X125734113</t>
-  </si>
-  <si>
-    <t>T152443578</t>
-  </si>
-  <si>
-    <t>Q226073134</t>
-  </si>
-  <si>
-    <t>O956532775</t>
-  </si>
-  <si>
-    <t>O233163661</t>
-  </si>
-  <si>
-    <t>H879665742</t>
-  </si>
-  <si>
-    <t>A924391149</t>
-  </si>
-  <si>
-    <t>K224035703</t>
-  </si>
-  <si>
-    <t>O885045832</t>
-  </si>
-  <si>
-    <t>V830254153</t>
-  </si>
-  <si>
-    <t>X804814727</t>
-  </si>
-  <si>
-    <t>B898804647</t>
-  </si>
-  <si>
-    <t>E972353855</t>
-  </si>
-  <si>
-    <t>S257098243</t>
-  </si>
-  <si>
-    <t>F910294178</t>
-  </si>
-  <si>
-    <t>B229219747</t>
-  </si>
-  <si>
-    <t>F297090909</t>
-  </si>
-  <si>
-    <t>C109094690</t>
-  </si>
-  <si>
-    <t>Q170534944</t>
-  </si>
-  <si>
-    <t>G838555584</t>
-  </si>
-  <si>
-    <t>C284476107</t>
-  </si>
-  <si>
-    <t>J880489080</t>
-  </si>
-  <si>
-    <t>E262846116</t>
-  </si>
-  <si>
-    <t>T218815774</t>
-  </si>
-  <si>
-    <t>W933342958</t>
-  </si>
-  <si>
-    <t>X939510672</t>
-  </si>
-  <si>
-    <t>P102515007</t>
-  </si>
-  <si>
-    <t>A973722163</t>
-  </si>
-  <si>
-    <t>P240970424</t>
-  </si>
-  <si>
-    <t>L157711038</t>
-  </si>
-  <si>
-    <t>G868246141</t>
-  </si>
-  <si>
-    <t>O898404096</t>
-  </si>
-  <si>
-    <t>Q193061391</t>
-  </si>
-  <si>
-    <t>T815308621</t>
-  </si>
-  <si>
-    <t>O891960779</t>
-  </si>
-  <si>
-    <t>W289749630</t>
-  </si>
-  <si>
-    <t>B195731143</t>
-  </si>
-  <si>
-    <t>M950320349</t>
-  </si>
-  <si>
-    <t>M280937107</t>
-  </si>
-  <si>
-    <t>J102027375</t>
-  </si>
-  <si>
-    <t>H273185494</t>
-  </si>
-  <si>
-    <t>K885566010</t>
-  </si>
-  <si>
-    <t>O212919716</t>
-  </si>
-  <si>
-    <t>I985124179</t>
-  </si>
-  <si>
-    <t>K291240249</t>
-  </si>
-  <si>
-    <t>F177122088</t>
-  </si>
-  <si>
-    <t>R145153709</t>
-  </si>
-  <si>
-    <t>O121825270</t>
-  </si>
-  <si>
-    <t>T861142211</t>
-  </si>
-  <si>
-    <t>S104148696</t>
-  </si>
-  <si>
-    <t>J204668241</t>
-  </si>
-  <si>
-    <t>R200231137</t>
-  </si>
-  <si>
-    <t>K110920966</t>
-  </si>
-  <si>
-    <t>N800144012</t>
-  </si>
-  <si>
-    <t>A256850735</t>
-  </si>
-  <si>
-    <t>H244152329</t>
-  </si>
-  <si>
-    <t>I844909012</t>
-  </si>
-  <si>
-    <t>K993419380</t>
-  </si>
-  <si>
-    <t>F152160288</t>
-  </si>
-  <si>
-    <t>L947606857</t>
-  </si>
-  <si>
-    <t>D199711210</t>
-  </si>
-  <si>
-    <t>I259599740</t>
-  </si>
-  <si>
-    <t>X231780874</t>
-  </si>
-  <si>
-    <t>P205623375</t>
-  </si>
-  <si>
-    <t>N129237930</t>
-  </si>
-  <si>
-    <t>J126204105</t>
-  </si>
-  <si>
-    <t>G133406199</t>
-  </si>
-  <si>
-    <t>H216417137</t>
-  </si>
-  <si>
-    <t>A896499629</t>
-  </si>
-  <si>
-    <t>Q866653805</t>
-  </si>
-  <si>
-    <t>A238346890</t>
-  </si>
-  <si>
-    <t>W806634489</t>
-  </si>
-  <si>
-    <t>L135172484</t>
-  </si>
-  <si>
-    <t>X186873966</t>
-  </si>
-  <si>
-    <t>L219554942</t>
-  </si>
-  <si>
-    <t>Q251296038</t>
-  </si>
-  <si>
-    <t>O919113243</t>
-  </si>
-  <si>
-    <t>V810656571</t>
-  </si>
-  <si>
-    <t>H836663977</t>
-  </si>
-  <si>
-    <t>Z951198995</t>
-  </si>
-  <si>
-    <t>V968084430</t>
-  </si>
-  <si>
-    <t>X134709986</t>
-  </si>
-  <si>
-    <t>B959083508</t>
-  </si>
-  <si>
-    <t>G248759725</t>
-  </si>
-  <si>
-    <t>J190188167</t>
-  </si>
-  <si>
-    <t>U266263116</t>
-  </si>
-  <si>
-    <t>C856119662</t>
-  </si>
-  <si>
-    <t>I268323049</t>
-  </si>
-  <si>
-    <t>U166148014</t>
-  </si>
-  <si>
-    <t>Q212013826</t>
-  </si>
-  <si>
-    <t>J994801470</t>
-  </si>
-  <si>
-    <t>N152471620</t>
-  </si>
-  <si>
-    <t>S973463799</t>
-  </si>
-  <si>
-    <t>G116005634</t>
-  </si>
-  <si>
-    <t>U991533232</t>
-  </si>
-  <si>
-    <t>Z188832911</t>
-  </si>
-  <si>
-    <t>D970645902</t>
-  </si>
-  <si>
-    <t>L841845956</t>
-  </si>
-  <si>
-    <t>K814580122</t>
-  </si>
-  <si>
-    <t>R284578751</t>
-  </si>
-  <si>
-    <t>F811525214</t>
-  </si>
-  <si>
-    <t>H838262094</t>
-  </si>
-  <si>
-    <t>O252289448</t>
-  </si>
-  <si>
-    <t>D838413346</t>
-  </si>
-  <si>
-    <t>Q931642752</t>
-  </si>
-  <si>
-    <t>X229833628</t>
-  </si>
-  <si>
-    <t>M904808401</t>
-  </si>
-  <si>
-    <t>B999802176</t>
-  </si>
-  <si>
-    <t>U281714187</t>
-  </si>
-  <si>
-    <t>F984650502</t>
-  </si>
-  <si>
-    <t>T105130948</t>
-  </si>
-  <si>
-    <t>V901827886</t>
-  </si>
-  <si>
-    <t>U922145600</t>
-  </si>
-  <si>
-    <t>S835485244</t>
-  </si>
-  <si>
-    <t>K140432246</t>
-  </si>
-  <si>
-    <t>J920818361</t>
-  </si>
-  <si>
-    <t>W808834209</t>
-  </si>
-  <si>
-    <t>V290879558</t>
-  </si>
-  <si>
-    <t>I803150308</t>
-  </si>
-  <si>
-    <t>K173400727</t>
-  </si>
-  <si>
-    <t>A823056452</t>
-  </si>
-  <si>
-    <t>Q830817360</t>
-  </si>
-  <si>
-    <t>A255014922</t>
-  </si>
-  <si>
-    <t>L862879961</t>
-  </si>
-  <si>
-    <t>D125272668</t>
-  </si>
-  <si>
-    <t>N138553661</t>
-  </si>
-  <si>
-    <t>Z252019819</t>
-  </si>
-  <si>
-    <t>N833973836</t>
-  </si>
-  <si>
-    <t>F262056784</t>
-  </si>
-  <si>
-    <t>Z265499143</t>
-  </si>
-  <si>
-    <t>X916075778</t>
-  </si>
-  <si>
-    <t>P145901954</t>
-  </si>
-  <si>
-    <t>M245759450</t>
-  </si>
-  <si>
-    <t>V917328625</t>
-  </si>
-  <si>
-    <t>X193919084</t>
-  </si>
-  <si>
-    <t>X941560379</t>
-  </si>
-  <si>
-    <t>V903494714</t>
-  </si>
-  <si>
-    <t>P264537663</t>
-  </si>
-  <si>
-    <t>W938958787</t>
-  </si>
-  <si>
-    <t>D121509968</t>
-  </si>
-  <si>
-    <t>A249273684</t>
-  </si>
-  <si>
-    <t>H833977429</t>
-  </si>
-  <si>
-    <t>V932617052</t>
-  </si>
-  <si>
-    <t>Z110049897</t>
-  </si>
-  <si>
-    <t>W135263481</t>
-  </si>
-  <si>
-    <t>Q131678381</t>
-  </si>
-  <si>
-    <t>Q879877631</t>
-  </si>
-  <si>
-    <t>M277628671</t>
-  </si>
-  <si>
-    <t>R826946260</t>
-  </si>
-  <si>
-    <t>Z988676320</t>
-  </si>
-  <si>
-    <t>X996986341</t>
-  </si>
-  <si>
-    <t>P821560188</t>
-  </si>
-  <si>
-    <t>G918840691</t>
-  </si>
-  <si>
-    <t>L261035123</t>
-  </si>
-  <si>
-    <t>B250668403</t>
-  </si>
-  <si>
-    <t>O850266725</t>
-  </si>
-  <si>
-    <t>Q855396326</t>
-  </si>
-  <si>
-    <t>O127151395</t>
-  </si>
-  <si>
-    <t>D853907652</t>
-  </si>
-  <si>
-    <t>H149933395</t>
-  </si>
-  <si>
-    <t>U160726470</t>
-  </si>
-  <si>
-    <t>U269449565</t>
-  </si>
-  <si>
-    <t>Q826977255</t>
-  </si>
-  <si>
-    <t>S960019385</t>
-  </si>
-  <si>
-    <t>W898646626</t>
-  </si>
-  <si>
-    <t>F816642587</t>
-  </si>
-  <si>
-    <t>W176823367</t>
-  </si>
-  <si>
-    <t>H295101956</t>
-  </si>
-  <si>
-    <t>E845046114</t>
-  </si>
-  <si>
-    <t>G926817115</t>
-  </si>
-  <si>
-    <t>A991067334</t>
-  </si>
-  <si>
-    <t>T876057096</t>
-  </si>
-  <si>
-    <t>Z905116029</t>
-  </si>
-  <si>
-    <t>W112335331</t>
-  </si>
-  <si>
-    <t>N223073998</t>
-  </si>
-  <si>
-    <t>W878392841</t>
-  </si>
-  <si>
-    <t>M281614096</t>
-  </si>
-  <si>
-    <t>Q937187554</t>
-  </si>
-  <si>
-    <t>D835911498</t>
-  </si>
-  <si>
-    <t>S229450797</t>
-  </si>
-  <si>
-    <t>U834794282</t>
-  </si>
-  <si>
-    <t>V291015790</t>
-  </si>
-  <si>
-    <t>J926351338</t>
-  </si>
-  <si>
-    <t>Q829222748</t>
-  </si>
-  <si>
-    <t>Z293864249</t>
-  </si>
-  <si>
-    <t>E988312593</t>
-  </si>
-  <si>
-    <t>C260384924</t>
-  </si>
-  <si>
-    <t>V886401240</t>
-  </si>
-  <si>
-    <t>S921800164</t>
-  </si>
-  <si>
-    <t>T117660611</t>
-  </si>
-  <si>
-    <t>G943815124</t>
-  </si>
-  <si>
-    <t>J291958352</t>
-  </si>
-  <si>
-    <t>E298478657</t>
-  </si>
-  <si>
-    <t>J991656526</t>
-  </si>
-  <si>
-    <t>F916989854</t>
-  </si>
-  <si>
-    <t>Q861855676</t>
-  </si>
-  <si>
-    <t>T952091141</t>
-  </si>
-  <si>
-    <t>W907922202</t>
-  </si>
-  <si>
-    <t>P978273032</t>
-  </si>
-  <si>
-    <t>R268198888</t>
-  </si>
-  <si>
-    <t>H203572049</t>
-  </si>
-  <si>
-    <t>V918437963</t>
-  </si>
-  <si>
-    <t>K251156839</t>
-  </si>
-  <si>
-    <t>A138200799</t>
-  </si>
-  <si>
-    <t>H924714694</t>
-  </si>
-  <si>
-    <t>D206468637</t>
-  </si>
-  <si>
-    <t>E153613269</t>
-  </si>
-  <si>
-    <t>V928148213</t>
-  </si>
-  <si>
-    <t>G278277898</t>
-  </si>
-  <si>
-    <t>K884235552</t>
-  </si>
-  <si>
-    <t>R259333486</t>
-  </si>
-  <si>
-    <t>T213844480</t>
-  </si>
-  <si>
-    <t>V162558266</t>
-  </si>
-  <si>
-    <t>R901604316</t>
-  </si>
-  <si>
-    <t>S998615575</t>
-  </si>
-  <si>
-    <t>E184729943</t>
-  </si>
-  <si>
-    <t>J915477518</t>
-  </si>
-  <si>
-    <t>V859379862</t>
-  </si>
-  <si>
-    <t>T199463490</t>
-  </si>
-  <si>
-    <t>C976496331</t>
-  </si>
-  <si>
-    <t>L225259645</t>
-  </si>
-  <si>
-    <t>N165673683</t>
-  </si>
-  <si>
-    <t>Q936482621</t>
-  </si>
-  <si>
-    <t>E951042400</t>
-  </si>
-  <si>
-    <t>T108256216</t>
-  </si>
-  <si>
-    <t>U161176778</t>
-  </si>
-  <si>
-    <t>G215913059</t>
-  </si>
-  <si>
-    <t>H843877258</t>
-  </si>
-  <si>
-    <t>H133544739</t>
-  </si>
-  <si>
-    <t>X966458861</t>
-  </si>
-  <si>
-    <t>B145577457</t>
-  </si>
-  <si>
-    <t>P858292226</t>
-  </si>
-  <si>
-    <t>R260526246</t>
-  </si>
-  <si>
-    <t>A142246150</t>
-  </si>
-  <si>
-    <t>H155551863</t>
-  </si>
-  <si>
-    <t>W172599673</t>
-  </si>
-  <si>
-    <t>W884144422</t>
-  </si>
-  <si>
-    <t>X210480600</t>
-  </si>
-  <si>
-    <t>C159544823</t>
-  </si>
-  <si>
-    <t>Q938990395</t>
-  </si>
-  <si>
-    <t>N127905560</t>
-  </si>
-  <si>
-    <t>K942189628</t>
-  </si>
-  <si>
-    <t>Q103053285</t>
-  </si>
-  <si>
-    <t>R238442739</t>
-  </si>
-  <si>
-    <t>N140434957</t>
-  </si>
-  <si>
-    <t>Z186016875</t>
-  </si>
-  <si>
-    <t>T256428220</t>
-  </si>
-  <si>
-    <t>F987053354</t>
-  </si>
-  <si>
-    <t>H245255605</t>
-  </si>
-  <si>
-    <t>H843784856</t>
-  </si>
-  <si>
-    <t>E145182264</t>
-  </si>
-  <si>
-    <t>J915677545</t>
-  </si>
-  <si>
-    <t>T962983576</t>
-  </si>
-  <si>
-    <t>L112643668</t>
-  </si>
-  <si>
-    <t>Q831248743</t>
-  </si>
-  <si>
-    <t>R283535501</t>
-  </si>
-  <si>
-    <t>O135091175</t>
-  </si>
-  <si>
-    <t>J242283386</t>
-  </si>
-  <si>
-    <t>D182702103</t>
-  </si>
-  <si>
-    <t>K162699530</t>
-  </si>
-  <si>
-    <t>K274185472</t>
-  </si>
-  <si>
-    <t>U880797273</t>
-  </si>
-  <si>
-    <t>S109489709</t>
-  </si>
-  <si>
-    <t>U150282658</t>
-  </si>
-  <si>
-    <t>E275383226</t>
-  </si>
-  <si>
-    <t>B264679932</t>
-  </si>
-  <si>
-    <t>G994525008</t>
-  </si>
-  <si>
-    <t>X223380066</t>
-  </si>
-  <si>
-    <t>F276131478</t>
-  </si>
-  <si>
-    <t>M145004789</t>
-  </si>
-  <si>
-    <t>G217968249</t>
-  </si>
-  <si>
-    <t>J262778313</t>
-  </si>
-  <si>
-    <t>W864879246</t>
-  </si>
-  <si>
-    <t>G257218808</t>
-  </si>
-  <si>
-    <t>I913408475</t>
-  </si>
-  <si>
-    <t>X854509431</t>
-  </si>
-  <si>
-    <t>I803912282</t>
-  </si>
-  <si>
-    <t>W848019526</t>
-  </si>
-  <si>
-    <t>A191506858</t>
-  </si>
-  <si>
-    <t>N184451054</t>
-  </si>
-  <si>
-    <t>P171117437</t>
-  </si>
-  <si>
-    <t>F227550427</t>
-  </si>
-  <si>
-    <t>Z863315968</t>
-  </si>
-  <si>
-    <t>Z299784884</t>
-  </si>
-  <si>
-    <t>C984998853</t>
-  </si>
-  <si>
-    <t>R100818472</t>
-  </si>
-  <si>
-    <t>G802224429</t>
-  </si>
-  <si>
-    <t>Q928736254</t>
-  </si>
-  <si>
-    <t>J995977553</t>
-  </si>
-  <si>
-    <t>D965506194</t>
-  </si>
-  <si>
-    <t>X906837891</t>
-  </si>
-  <si>
-    <t>N192633257</t>
-  </si>
-  <si>
-    <t>S199449597</t>
-  </si>
-  <si>
-    <t>O268286408</t>
-  </si>
-  <si>
-    <t>M135443149</t>
-  </si>
-  <si>
-    <t>L113763169</t>
-  </si>
-  <si>
-    <t>R983892265</t>
-  </si>
-  <si>
-    <t>K101179424</t>
-  </si>
-  <si>
-    <t>R861466929</t>
-  </si>
-  <si>
-    <t>J102406974</t>
-  </si>
-  <si>
-    <t>Z875269435</t>
-  </si>
-  <si>
-    <t>J957180690</t>
-  </si>
-  <si>
-    <t>E123336348</t>
-  </si>
-  <si>
-    <t>I923335014</t>
-  </si>
-  <si>
-    <t>M146290234</t>
-  </si>
-  <si>
-    <t>W165071697</t>
-  </si>
-  <si>
-    <t>K838687655</t>
-  </si>
-  <si>
-    <t>I224165334</t>
-  </si>
-  <si>
-    <t>L901924041</t>
-  </si>
-  <si>
-    <t>V816913897</t>
-  </si>
-  <si>
-    <t>H886558323</t>
-  </si>
-  <si>
-    <t>B853207922</t>
-  </si>
-  <si>
-    <t>A177661503</t>
-  </si>
-  <si>
-    <t>F908014973</t>
-  </si>
-  <si>
-    <t>G220760435</t>
-  </si>
-  <si>
-    <t>D916729776</t>
-  </si>
-  <si>
-    <t>H927398441</t>
-  </si>
-  <si>
-    <t>U815991289</t>
-  </si>
-  <si>
-    <t>N957178451</t>
-  </si>
-  <si>
-    <t>S882740163</t>
-  </si>
-  <si>
-    <t>M178630986</t>
-  </si>
-  <si>
-    <t>Z809996996</t>
-  </si>
-  <si>
-    <t>S914541712</t>
-  </si>
-  <si>
-    <t>N159970500</t>
-  </si>
-  <si>
-    <t>N880732810</t>
-  </si>
-  <si>
-    <t>O157159372</t>
-  </si>
-  <si>
-    <t>C289193630</t>
-  </si>
-  <si>
-    <t>Q274184684</t>
-  </si>
-  <si>
-    <t>O949960376</t>
-  </si>
-  <si>
-    <t>O190020496</t>
-  </si>
-  <si>
-    <t>H822204531</t>
-  </si>
-  <si>
-    <t>A292904207</t>
-  </si>
-  <si>
-    <t>W223173518</t>
-  </si>
-  <si>
-    <t>I254423090</t>
-  </si>
-  <si>
-    <t>D893009644</t>
-  </si>
-  <si>
-    <t>H973539772</t>
-  </si>
-  <si>
-    <t>F238363378</t>
-  </si>
-  <si>
-    <t>F893019820</t>
-  </si>
-  <si>
-    <t>X844662814</t>
-  </si>
-  <si>
-    <t>O268301642</t>
-  </si>
-  <si>
-    <t>N852597598</t>
-  </si>
-  <si>
-    <t>T103870681</t>
-  </si>
-  <si>
-    <t>G809283186</t>
-  </si>
-  <si>
-    <t>B143500305</t>
-  </si>
-  <si>
-    <t>U141768743</t>
-  </si>
-  <si>
-    <t>J178858455</t>
-  </si>
-  <si>
-    <t>V945372348</t>
-  </si>
-  <si>
-    <t>T206131745</t>
-  </si>
-  <si>
-    <t>I158630491</t>
-  </si>
-  <si>
-    <t>F902883278</t>
-  </si>
-  <si>
-    <t>R843747190</t>
-  </si>
-  <si>
-    <t>I214257263</t>
-  </si>
-  <si>
-    <t>C274718616</t>
-  </si>
-  <si>
-    <t>V997958770</t>
-  </si>
-  <si>
-    <t>A983646901</t>
-  </si>
-  <si>
-    <t>P230513015</t>
-  </si>
-  <si>
-    <t>J288381721</t>
-  </si>
-  <si>
-    <t>C296645201</t>
-  </si>
-  <si>
-    <t>G931614948</t>
-  </si>
-  <si>
-    <t>E192728012</t>
-  </si>
-  <si>
-    <t>J169453200</t>
-  </si>
-  <si>
-    <t>X156865956</t>
-  </si>
-  <si>
-    <t>N273771583</t>
-  </si>
-  <si>
-    <t>U133487855</t>
-  </si>
-  <si>
-    <t>Z878641064</t>
-  </si>
-  <si>
-    <t>E900612181</t>
-  </si>
-  <si>
-    <t>C882331081</t>
-  </si>
-  <si>
-    <t>S207541208</t>
-  </si>
-  <si>
-    <t>O295011631</t>
-  </si>
-  <si>
-    <t>L814041540</t>
-  </si>
-  <si>
-    <t>G116502772</t>
-  </si>
-  <si>
-    <t>C222906300</t>
-  </si>
-  <si>
-    <t>J883619437</t>
-  </si>
-  <si>
-    <t>C258373448</t>
-  </si>
-  <si>
-    <t>L131169196</t>
-  </si>
-  <si>
-    <t>C159971124</t>
-  </si>
-  <si>
-    <t>D919853000</t>
-  </si>
-  <si>
-    <t>D179162319</t>
-  </si>
-  <si>
-    <t>R925738784</t>
-  </si>
-  <si>
-    <t>E838347357</t>
-  </si>
-  <si>
-    <t>A169715921</t>
-  </si>
-  <si>
-    <t>N216709161</t>
-  </si>
-  <si>
-    <t>F944634177</t>
-  </si>
-  <si>
-    <t>W957025409</t>
-  </si>
-  <si>
-    <t>Q110020063</t>
-  </si>
-  <si>
-    <t>C299959739</t>
-  </si>
-  <si>
-    <t>A235295476</t>
-  </si>
-  <si>
-    <t>P229454961</t>
-  </si>
-  <si>
-    <t>H207645721</t>
-  </si>
-  <si>
-    <t>L156023413</t>
-  </si>
-  <si>
-    <t>J849174800</t>
-  </si>
-  <si>
-    <t>D866004786</t>
-  </si>
-  <si>
-    <t>G952517088</t>
-  </si>
-  <si>
-    <t>W948906188</t>
-  </si>
-  <si>
-    <t>X210102432</t>
-  </si>
-  <si>
-    <t>X822988060</t>
-  </si>
-  <si>
-    <t>G928087428</t>
-  </si>
-  <si>
-    <t>O231936988</t>
-  </si>
-  <si>
-    <t>H946124050</t>
-  </si>
-  <si>
-    <t>N926539022</t>
-  </si>
-  <si>
-    <t>L900800855</t>
-  </si>
-  <si>
-    <t>F815647908</t>
-  </si>
-  <si>
-    <t>R289174824</t>
-  </si>
-  <si>
-    <t>B268488124</t>
-  </si>
-  <si>
-    <t>L230710539</t>
-  </si>
-  <si>
-    <t>P911415712</t>
-  </si>
-  <si>
-    <t>D882763548</t>
-  </si>
-  <si>
-    <t>C104697084</t>
-  </si>
-  <si>
-    <t>S257495804</t>
-  </si>
-  <si>
-    <t>N194053640</t>
-  </si>
-  <si>
-    <t>B820582278</t>
-  </si>
-  <si>
-    <t>S845695298</t>
-  </si>
-  <si>
-    <t>K949423445</t>
-  </si>
-  <si>
-    <t>S856789265</t>
-  </si>
-  <si>
-    <t>O800891232</t>
-  </si>
-  <si>
-    <t>I946040438</t>
-  </si>
-  <si>
-    <t>W229667724</t>
-  </si>
-  <si>
-    <t>J800440829</t>
-  </si>
-  <si>
-    <t>U100683516</t>
-  </si>
-  <si>
-    <t>I150235387</t>
-  </si>
-  <si>
-    <t>Q916158151</t>
-  </si>
-  <si>
-    <t>N221349686</t>
-  </si>
-  <si>
-    <t>H204144370</t>
-  </si>
-  <si>
-    <t>U828547286</t>
-  </si>
-  <si>
-    <t>R255680199</t>
-  </si>
-  <si>
-    <t>M211590625</t>
-  </si>
-  <si>
-    <t>U172656830</t>
-  </si>
-  <si>
-    <t>U136218923</t>
-  </si>
-  <si>
-    <t>W179978298</t>
-  </si>
-  <si>
-    <t>U912104302</t>
-  </si>
-  <si>
-    <t>E903214534</t>
-  </si>
-  <si>
-    <t>U816999234</t>
-  </si>
-  <si>
-    <t>P282786057</t>
-  </si>
-  <si>
-    <t>G897099629</t>
-  </si>
-  <si>
-    <t>C885925085</t>
-  </si>
-  <si>
-    <t>C842470983</t>
-  </si>
-  <si>
-    <t>L217669744</t>
-  </si>
-  <si>
-    <t>X109212372</t>
-  </si>
-  <si>
-    <t>W800917292</t>
-  </si>
-  <si>
-    <t>G822496994</t>
-  </si>
-  <si>
-    <t>V159778343</t>
-  </si>
-  <si>
-    <t>A131026991</t>
-  </si>
-  <si>
-    <t>X124641324</t>
-  </si>
-  <si>
-    <t>W847648998</t>
-  </si>
-  <si>
-    <t>H124296980</t>
-  </si>
-  <si>
-    <t>P289685731</t>
-  </si>
-  <si>
-    <t>O184481796</t>
-  </si>
-  <si>
-    <t>O258237635</t>
-  </si>
-  <si>
-    <t>B189206282</t>
-  </si>
-  <si>
-    <t>V910932809</t>
-  </si>
-  <si>
-    <t>D966988252</t>
-  </si>
-  <si>
-    <t>M231196945</t>
-  </si>
-  <si>
-    <t>S169951968</t>
-  </si>
-  <si>
-    <t>B184042411</t>
-  </si>
-  <si>
-    <t>I931132492</t>
-  </si>
-  <si>
-    <t>W888015459</t>
-  </si>
-  <si>
-    <t>H990721103</t>
-  </si>
-  <si>
-    <t>C878657732</t>
-  </si>
-  <si>
-    <t>C136624211</t>
-  </si>
-  <si>
-    <t>M203643555</t>
-  </si>
-  <si>
-    <t>N847420455</t>
-  </si>
-  <si>
-    <t>E871052302</t>
-  </si>
-  <si>
-    <t>T835670931</t>
-  </si>
-  <si>
-    <t>S889597759</t>
-  </si>
-  <si>
-    <t>G890123079</t>
-  </si>
-  <si>
-    <t>V944028136</t>
-  </si>
-  <si>
-    <t>C861797436</t>
-  </si>
-  <si>
-    <t>N270301776</t>
-  </si>
-  <si>
-    <t>T875211390</t>
-  </si>
-  <si>
-    <t>R879129720</t>
-  </si>
-  <si>
-    <t>Z280007418</t>
-  </si>
-  <si>
-    <t>P135658526</t>
-  </si>
-  <si>
-    <t>Q988502827</t>
-  </si>
-  <si>
-    <t>Q128606602</t>
-  </si>
-  <si>
-    <t>Z236647699</t>
-  </si>
-  <si>
-    <t>Z840323453</t>
-  </si>
-  <si>
-    <t>U801547513</t>
-  </si>
-  <si>
-    <t>X205495859</t>
-  </si>
-  <si>
-    <t>N176520755</t>
-  </si>
-  <si>
-    <t>L820464031</t>
-  </si>
-  <si>
-    <t>O265073007</t>
-  </si>
-  <si>
-    <t>F865542716</t>
-  </si>
-  <si>
-    <t>K191465333</t>
-  </si>
-  <si>
-    <t>L872086718</t>
-  </si>
-  <si>
-    <t>Q992725445</t>
-  </si>
-  <si>
-    <t>J922513618</t>
-  </si>
-  <si>
-    <t>K278646547</t>
-  </si>
-  <si>
-    <t>S244825807</t>
-  </si>
-  <si>
-    <t>D290918448</t>
-  </si>
-  <si>
-    <t>V143264374</t>
-  </si>
-  <si>
-    <t>A800996113</t>
-  </si>
-  <si>
-    <t>V980031086</t>
-  </si>
-  <si>
-    <t>Z834350659</t>
-  </si>
-  <si>
-    <t>N222623449</t>
-  </si>
-  <si>
-    <t>E999226839</t>
-  </si>
-  <si>
-    <t>G953381340</t>
-  </si>
-  <si>
-    <t>E196371813</t>
-  </si>
-  <si>
-    <t>T813083434</t>
-  </si>
-  <si>
-    <t>B832361930</t>
-  </si>
-  <si>
-    <t>C128133103</t>
-  </si>
-  <si>
-    <t>C899893845</t>
-  </si>
-  <si>
-    <t>L836075531</t>
-  </si>
-  <si>
-    <t>O926508510</t>
-  </si>
-  <si>
-    <t>F986479710</t>
-  </si>
-  <si>
-    <t>X160030354</t>
-  </si>
-  <si>
-    <t>V245534193</t>
-  </si>
-  <si>
-    <t>K827679129</t>
-  </si>
-  <si>
-    <t>C104766664</t>
-  </si>
-  <si>
-    <t>A237710207</t>
-  </si>
-  <si>
-    <t>E254614637</t>
-  </si>
-  <si>
-    <t>X852071890</t>
-  </si>
-  <si>
-    <t>W964197590</t>
-  </si>
-  <si>
-    <t>V963984319</t>
-  </si>
-  <si>
-    <t>C134541657</t>
-  </si>
-  <si>
-    <t>S101130094</t>
-  </si>
-  <si>
-    <t>T185649204</t>
-  </si>
-  <si>
-    <t>U273910657</t>
-  </si>
-  <si>
-    <t>K963466022</t>
-  </si>
-  <si>
-    <t>H961981202</t>
-  </si>
-  <si>
-    <t>I960509390</t>
-  </si>
-  <si>
-    <t>P187006178</t>
-  </si>
-  <si>
-    <t>K189729797</t>
-  </si>
-  <si>
-    <t>B102622462</t>
-  </si>
-  <si>
-    <t>D220492251</t>
-  </si>
-  <si>
-    <t>Z186952125</t>
-  </si>
-  <si>
-    <t>D909854899</t>
-  </si>
-  <si>
-    <t>Q988294151</t>
-  </si>
-  <si>
-    <t>L898334139</t>
-  </si>
-  <si>
-    <t>J941550962</t>
-  </si>
-  <si>
-    <t>Z200842520</t>
-  </si>
-  <si>
-    <t>L845613665</t>
-  </si>
-  <si>
-    <t>M815888011</t>
-  </si>
-  <si>
-    <t>S846424702</t>
-  </si>
-  <si>
-    <t>K160616917</t>
-  </si>
-  <si>
-    <t>E186432023</t>
-  </si>
-  <si>
-    <t>C252219187</t>
-  </si>
-  <si>
-    <t>E953198138</t>
-  </si>
-  <si>
-    <t>L985410346</t>
-  </si>
-  <si>
-    <t>V297696520</t>
-  </si>
-  <si>
-    <t>V897368989</t>
-  </si>
-  <si>
-    <t>N282711040</t>
-  </si>
-  <si>
-    <t>G226910653</t>
-  </si>
-  <si>
-    <t>E940421217</t>
-  </si>
-  <si>
-    <t>X811309375</t>
-  </si>
-  <si>
-    <t>W104235671</t>
-  </si>
-  <si>
-    <t>Q289029510</t>
-  </si>
-  <si>
-    <t>R843368073</t>
-  </si>
-  <si>
-    <t>U928842402</t>
-  </si>
-  <si>
-    <t>T903223802</t>
-  </si>
-  <si>
-    <t>M252585942</t>
-  </si>
-  <si>
-    <t>L294093073</t>
-  </si>
-  <si>
-    <t>D810568508</t>
-  </si>
-  <si>
-    <t>C851604942</t>
-  </si>
-  <si>
-    <t>H150370582</t>
-  </si>
-  <si>
-    <t>F875125183</t>
-  </si>
-  <si>
-    <t>S209650175</t>
-  </si>
-  <si>
-    <t>K944341537</t>
-  </si>
-  <si>
-    <t>K890889422</t>
-  </si>
-  <si>
-    <t>L971542504</t>
-  </si>
-  <si>
-    <t>W177317439</t>
-  </si>
-  <si>
-    <t>K229969437</t>
-  </si>
-  <si>
-    <t>V921602607</t>
-  </si>
-  <si>
-    <t>F277724333</t>
-  </si>
-  <si>
-    <t>K147604366</t>
-  </si>
-  <si>
-    <t>L813874625</t>
-  </si>
-  <si>
-    <t>B820455945</t>
-  </si>
-  <si>
-    <t>J984907027</t>
-  </si>
-  <si>
-    <t>S883623563</t>
-  </si>
-  <si>
-    <t>F975542720</t>
-  </si>
-  <si>
-    <t>X157548712</t>
-  </si>
-  <si>
-    <t>V945050829</t>
-  </si>
-  <si>
-    <t>D235176415</t>
-  </si>
-  <si>
-    <t>Z255169692</t>
-  </si>
-  <si>
-    <t>L922431149</t>
-  </si>
-  <si>
-    <t>Q920791164</t>
-  </si>
-  <si>
-    <t>R870609601</t>
-  </si>
-  <si>
-    <t>P141931858</t>
-  </si>
-  <si>
-    <t>M865477335</t>
-  </si>
-  <si>
-    <t>J130979375</t>
-  </si>
-  <si>
-    <t>F210008301</t>
-  </si>
-  <si>
-    <t>Z886718092</t>
-  </si>
-  <si>
-    <t>G130116689</t>
-  </si>
-  <si>
-    <t>R981338482</t>
-  </si>
-  <si>
-    <t>T251347391</t>
-  </si>
-  <si>
-    <t>H296253897</t>
-  </si>
-  <si>
-    <t>U957887773</t>
-  </si>
-  <si>
-    <t>P832229876</t>
-  </si>
-  <si>
-    <t>R297992532</t>
-  </si>
-  <si>
-    <t>G288258270</t>
-  </si>
-  <si>
-    <t>N164317579</t>
-  </si>
-  <si>
-    <t>L995133472</t>
-  </si>
-  <si>
-    <t>C142989143</t>
-  </si>
-  <si>
-    <t>Q194740935</t>
-  </si>
-  <si>
-    <t>T873183848</t>
-  </si>
-  <si>
-    <t>E934397497</t>
-  </si>
-  <si>
-    <t>B974096243</t>
-  </si>
-  <si>
-    <t>O818632050</t>
-  </si>
-  <si>
-    <t>E264662832</t>
-  </si>
-  <si>
-    <t>G252826891</t>
-  </si>
-  <si>
-    <t>P237231669</t>
-  </si>
-  <si>
-    <t>F997302604</t>
-  </si>
-  <si>
-    <t>A147060329</t>
-  </si>
-  <si>
-    <t>C963720953</t>
-  </si>
-  <si>
-    <t>P252708456</t>
-  </si>
-  <si>
-    <t>R182707467</t>
-  </si>
-  <si>
-    <t>W127557205</t>
-  </si>
-  <si>
-    <t>L996341147</t>
-  </si>
-  <si>
-    <t>H151731552</t>
-  </si>
-  <si>
-    <t>Q267187559</t>
-  </si>
-  <si>
-    <t>U843968576</t>
-  </si>
-  <si>
-    <t>O899782482</t>
-  </si>
-  <si>
-    <t>I210113895</t>
-  </si>
-  <si>
-    <t>X840670507</t>
-  </si>
-  <si>
-    <t>K987186012</t>
-  </si>
-  <si>
-    <t>U118972371</t>
-  </si>
-  <si>
-    <t>R230755088</t>
-  </si>
-  <si>
-    <t>J119530430</t>
-  </si>
-  <si>
-    <t>J164266298</t>
-  </si>
-  <si>
-    <t>L191629739</t>
-  </si>
-  <si>
-    <t>V202551412</t>
-  </si>
-  <si>
-    <t>G996474451</t>
-  </si>
-  <si>
-    <t>U249860620</t>
-  </si>
-  <si>
-    <t>L276379561</t>
-  </si>
-  <si>
-    <t>G220100662</t>
-  </si>
-  <si>
-    <t>X206957590</t>
-  </si>
-  <si>
-    <t>K889683183</t>
-  </si>
-  <si>
-    <t>H853439742</t>
-  </si>
-  <si>
-    <t>J887259731</t>
-  </si>
-  <si>
-    <t>L147330101</t>
-  </si>
-  <si>
-    <t>S109147331</t>
-  </si>
-  <si>
-    <t>E142517701</t>
-  </si>
-  <si>
-    <t>W165078374</t>
-  </si>
-  <si>
-    <t>A249480081</t>
-  </si>
-  <si>
-    <t>O938940046</t>
-  </si>
-  <si>
-    <t>O894929494</t>
-  </si>
-  <si>
-    <t>K228866697</t>
-  </si>
-  <si>
-    <t>U991046154</t>
-  </si>
-  <si>
-    <t>L843368925</t>
-  </si>
-  <si>
-    <t>O947563548</t>
-  </si>
-  <si>
-    <t>G277620046</t>
-  </si>
-  <si>
-    <t>E820661651</t>
-  </si>
-  <si>
-    <t>S259965461</t>
-  </si>
-  <si>
-    <t>I145344940</t>
-  </si>
-  <si>
-    <t>Q883855429</t>
-  </si>
-  <si>
-    <t>D986811136</t>
-  </si>
-  <si>
-    <t>K195683597</t>
-  </si>
-  <si>
-    <t>X187371201</t>
-  </si>
-  <si>
-    <t>L944505602</t>
-  </si>
-  <si>
-    <t>R219225503</t>
-  </si>
-  <si>
-    <t>N113984517</t>
-  </si>
-  <si>
-    <t>M806771932</t>
-  </si>
-  <si>
-    <t>O153445804</t>
-  </si>
-  <si>
-    <t>M244980237</t>
-  </si>
-  <si>
-    <t>M869561703</t>
-  </si>
-  <si>
-    <t>G223642658</t>
-  </si>
-  <si>
-    <t>Z859984268</t>
-  </si>
-  <si>
-    <t>X119551135</t>
-  </si>
-  <si>
-    <t>P298501891</t>
-  </si>
-  <si>
-    <t>W840740793</t>
-  </si>
-  <si>
-    <t>P116377186</t>
-  </si>
-  <si>
-    <t>W287154142</t>
-  </si>
-  <si>
-    <t>J924019677</t>
-  </si>
-  <si>
-    <t>N968631905</t>
-  </si>
-  <si>
-    <t>W809815137</t>
-  </si>
-  <si>
-    <t>A992401410</t>
-  </si>
-  <si>
-    <t>C908129814</t>
-  </si>
-  <si>
-    <t>F826266786</t>
-  </si>
-  <si>
-    <t>W941296134</t>
-  </si>
-  <si>
-    <t>O270621159</t>
-  </si>
-  <si>
-    <t>Q985774198</t>
-  </si>
-  <si>
-    <t>S159129249</t>
-  </si>
-  <si>
-    <t>W198202791</t>
-  </si>
-  <si>
-    <t>J261299304</t>
-  </si>
-  <si>
-    <t>E943338497</t>
-  </si>
-  <si>
-    <t>Z915448805</t>
-  </si>
-  <si>
-    <t>B189237536</t>
-  </si>
-  <si>
-    <t>A295523660</t>
-  </si>
-  <si>
-    <t>F873228592</t>
-  </si>
-  <si>
-    <t>B990408789</t>
-  </si>
-  <si>
-    <t>L135115970</t>
-  </si>
-  <si>
-    <t>I971247365</t>
-  </si>
-  <si>
-    <t>C879686022</t>
-  </si>
-  <si>
-    <t>P997409258</t>
-  </si>
-  <si>
-    <t>J924069686</t>
-  </si>
-  <si>
-    <t>F869987926</t>
-  </si>
-  <si>
-    <t>Q194195145</t>
-  </si>
-  <si>
-    <t>D817554940</t>
-  </si>
-  <si>
-    <t>B867873407</t>
-  </si>
-  <si>
-    <t>S857072465</t>
-  </si>
-  <si>
-    <t>H912900797</t>
-  </si>
-  <si>
-    <t>A878573131</t>
-  </si>
-  <si>
-    <t>O228837645</t>
-  </si>
-  <si>
-    <t>A254283594</t>
-  </si>
-  <si>
-    <t>B234658005</t>
-  </si>
-  <si>
-    <t>B905187840</t>
-  </si>
-  <si>
-    <t>T997889787</t>
-  </si>
-  <si>
-    <t>Q253744868</t>
-  </si>
-  <si>
-    <t>C857728736</t>
-  </si>
-  <si>
-    <t>J173828144</t>
-  </si>
-  <si>
-    <t>R128803237</t>
-  </si>
-  <si>
-    <t>N271263999</t>
-  </si>
-  <si>
-    <t>W923691079</t>
-  </si>
-  <si>
-    <t>O910819413</t>
-  </si>
-  <si>
-    <t>S881204211</t>
-  </si>
-  <si>
-    <t>P892670415</t>
-  </si>
-  <si>
-    <t>H280525766</t>
-  </si>
-  <si>
-    <t>R965016543</t>
-  </si>
-  <si>
-    <t>X874516352</t>
-  </si>
-  <si>
-    <t>C239230035</t>
-  </si>
-  <si>
-    <t>B144931680</t>
-  </si>
-  <si>
-    <t>V946533952</t>
-  </si>
-  <si>
-    <t>N292275793</t>
-  </si>
-  <si>
-    <t>A233472233</t>
-  </si>
-  <si>
-    <t>H213645700</t>
-  </si>
-  <si>
-    <t>L297482545</t>
-  </si>
-  <si>
-    <t>U136429060</t>
-  </si>
-  <si>
-    <t>O926364885</t>
-  </si>
-  <si>
-    <t>O225545837</t>
-  </si>
-  <si>
-    <t>U112787609</t>
-  </si>
-  <si>
-    <t>W122277953</t>
-  </si>
-  <si>
-    <t>V107252823</t>
-  </si>
-  <si>
-    <t>B240942527</t>
-  </si>
-  <si>
-    <t>I248131072</t>
-  </si>
-  <si>
-    <t>B286849036</t>
-  </si>
-  <si>
-    <t>N810362951</t>
-  </si>
-  <si>
-    <t>Q178252967</t>
-  </si>
-  <si>
-    <t>P835245372</t>
-  </si>
-  <si>
-    <t>O212225942</t>
-  </si>
-  <si>
-    <t>M861073037</t>
-  </si>
-  <si>
-    <t>P295448431</t>
-  </si>
-  <si>
-    <t>F106917260</t>
-  </si>
-  <si>
-    <t>O965329526</t>
-  </si>
-  <si>
-    <t>L928895978</t>
-  </si>
-  <si>
-    <t>W807879133</t>
-  </si>
-  <si>
-    <t>P926689993</t>
-  </si>
-  <si>
-    <t>T241771652</t>
-  </si>
-  <si>
-    <t>X932504327</t>
-  </si>
-  <si>
-    <t>I132714732</t>
-  </si>
-  <si>
-    <t>F214399072</t>
-  </si>
-  <si>
-    <t>N290806656</t>
-  </si>
-  <si>
-    <t>H103873101</t>
-  </si>
-  <si>
-    <t>A161452374</t>
-  </si>
-  <si>
-    <t>C819712261</t>
-  </si>
-  <si>
-    <t>E194677287</t>
-  </si>
-  <si>
-    <t>Z852335310</t>
-  </si>
-  <si>
-    <t>I833738267</t>
-  </si>
-  <si>
-    <t>E998112532</t>
-  </si>
-  <si>
-    <t>V817301024</t>
-  </si>
-  <si>
-    <t>L982971628</t>
-  </si>
-  <si>
-    <t>A206797621</t>
-  </si>
-  <si>
-    <t>P931865978</t>
-  </si>
-  <si>
-    <t>B914825077</t>
-  </si>
-  <si>
-    <t>M926188284</t>
-  </si>
-  <si>
-    <t>X821969632</t>
-  </si>
-  <si>
-    <t>D902746527</t>
-  </si>
-  <si>
-    <t>M164378151</t>
-  </si>
-  <si>
-    <t>L203950214</t>
-  </si>
-  <si>
-    <t>P955289238</t>
-  </si>
-  <si>
-    <t>J269163249</t>
-  </si>
-  <si>
-    <t>J838573333</t>
-  </si>
-  <si>
-    <t>P917921568</t>
-  </si>
-  <si>
-    <t>P131618231</t>
-  </si>
-  <si>
-    <t>U141031518</t>
-  </si>
-  <si>
-    <t>Z150407640</t>
-  </si>
-  <si>
-    <t>Q170264385</t>
-  </si>
-  <si>
-    <t>J280637495</t>
-  </si>
-  <si>
-    <t>C169688216</t>
-  </si>
-  <si>
-    <t>K982752801</t>
-  </si>
-  <si>
-    <t>K246804748</t>
-  </si>
-  <si>
-    <t>U867197560</t>
-  </si>
-  <si>
-    <t>U843931953</t>
-  </si>
-  <si>
-    <t>V980849266</t>
-  </si>
-  <si>
-    <t>F287711222</t>
-  </si>
-  <si>
-    <t>W967502333</t>
-  </si>
-  <si>
-    <t>U905854780</t>
-  </si>
-  <si>
-    <t>I210087701</t>
-  </si>
-  <si>
-    <t>E833536158</t>
-  </si>
-  <si>
-    <t>F910831868</t>
-  </si>
-  <si>
-    <t>F250906733</t>
-  </si>
-  <si>
-    <t>H108230419</t>
-  </si>
-  <si>
-    <t>O877445891</t>
+    <t>W887080676</t>
+  </si>
+  <si>
+    <t>F949252344</t>
+  </si>
+  <si>
+    <t>B228270808</t>
+  </si>
+  <si>
+    <t>H164576181</t>
+  </si>
+  <si>
+    <t>P164058049</t>
+  </si>
+  <si>
+    <t>P942648250</t>
+  </si>
+  <si>
+    <t>Z219050058</t>
+  </si>
+  <si>
+    <t>M909187970</t>
+  </si>
+  <si>
+    <t>V826394895</t>
+  </si>
+  <si>
+    <t>O996286896</t>
+  </si>
+  <si>
+    <t>Q883390003</t>
+  </si>
+  <si>
+    <t>L217200030</t>
+  </si>
+  <si>
+    <t>V133554254</t>
+  </si>
+  <si>
+    <t>L262058193</t>
+  </si>
+  <si>
+    <t>A837211818</t>
+  </si>
+  <si>
+    <t>P988162582</t>
+  </si>
+  <si>
+    <t>Z847652591</t>
+  </si>
+  <si>
+    <t>H800909322</t>
+  </si>
+  <si>
+    <t>K202996083</t>
+  </si>
+  <si>
+    <t>O112586831</t>
+  </si>
+  <si>
+    <t>V946319961</t>
+  </si>
+  <si>
+    <t>D845224699</t>
+  </si>
+  <si>
+    <t>S158296536</t>
+  </si>
+  <si>
+    <t>P886325712</t>
+  </si>
+  <si>
+    <t>B118007024</t>
+  </si>
+  <si>
+    <t>N898800381</t>
+  </si>
+  <si>
+    <t>K241187037</t>
+  </si>
+  <si>
+    <t>R977026200</t>
+  </si>
+  <si>
+    <t>N926478328</t>
+  </si>
+  <si>
+    <t>T869008501</t>
+  </si>
+  <si>
+    <t>M900483551</t>
+  </si>
+  <si>
+    <t>C997884644</t>
+  </si>
+  <si>
+    <t>W982180182</t>
+  </si>
+  <si>
+    <t>O953801611</t>
+  </si>
+  <si>
+    <t>K978168088</t>
+  </si>
+  <si>
+    <t>U250299235</t>
+  </si>
+  <si>
+    <t>L998256132</t>
+  </si>
+  <si>
+    <t>S802034380</t>
+  </si>
+  <si>
+    <t>Z211904228</t>
+  </si>
+  <si>
+    <t>M152590165</t>
+  </si>
+  <si>
+    <t>L212808438</t>
+  </si>
+  <si>
+    <t>S824358405</t>
+  </si>
+  <si>
+    <t>X928336955</t>
+  </si>
+  <si>
+    <t>K236652732</t>
+  </si>
+  <si>
+    <t>H167034000</t>
+  </si>
+  <si>
+    <t>D146108289</t>
+  </si>
+  <si>
+    <t>J128655637</t>
+  </si>
+  <si>
+    <t>U811976802</t>
+  </si>
+  <si>
+    <t>A161137210</t>
+  </si>
+  <si>
+    <t>F280172629</t>
+  </si>
+  <si>
+    <t>P160506615</t>
+  </si>
+  <si>
+    <t>C174915319</t>
+  </si>
+  <si>
+    <t>I151300061</t>
+  </si>
+  <si>
+    <t>J849152493</t>
+  </si>
+  <si>
+    <t>J951672322</t>
+  </si>
+  <si>
+    <t>L107616882</t>
+  </si>
+  <si>
+    <t>T103176320</t>
+  </si>
+  <si>
+    <t>X269741485</t>
+  </si>
+  <si>
+    <t>I160410025</t>
+  </si>
+  <si>
+    <t>T160909414</t>
+  </si>
+  <si>
+    <t>T959519553</t>
+  </si>
+  <si>
+    <t>X120877588</t>
+  </si>
+  <si>
+    <t>G280951041</t>
+  </si>
+  <si>
+    <t>X163316173</t>
+  </si>
+  <si>
+    <t>A827287828</t>
+  </si>
+  <si>
+    <t>V921522453</t>
+  </si>
+  <si>
+    <t>V288946277</t>
+  </si>
+  <si>
+    <t>Z949085018</t>
+  </si>
+  <si>
+    <t>H282057850</t>
+  </si>
+  <si>
+    <t>Q131841893</t>
+  </si>
+  <si>
+    <t>C868716484</t>
+  </si>
+  <si>
+    <t>R297193431</t>
+  </si>
+  <si>
+    <t>D162242571</t>
+  </si>
+  <si>
+    <t>D803106749</t>
+  </si>
+  <si>
+    <t>D948090697</t>
+  </si>
+  <si>
+    <t>H856711732</t>
+  </si>
+  <si>
+    <t>X920246721</t>
+  </si>
+  <si>
+    <t>Q955425619</t>
+  </si>
+  <si>
+    <t>V193841545</t>
+  </si>
+  <si>
+    <t>W818650297</t>
+  </si>
+  <si>
+    <t>G208171765</t>
+  </si>
+  <si>
+    <t>W110727564</t>
+  </si>
+  <si>
+    <t>C133771526</t>
+  </si>
+  <si>
+    <t>B915072383</t>
+  </si>
+  <si>
+    <t>J928067893</t>
+  </si>
+  <si>
+    <t>K123986156</t>
+  </si>
+  <si>
+    <t>A196478073</t>
+  </si>
+  <si>
+    <t>K864911408</t>
+  </si>
+  <si>
+    <t>R940720180</t>
+  </si>
+  <si>
+    <t>T940947236</t>
+  </si>
+  <si>
+    <t>E891413098</t>
+  </si>
+  <si>
+    <t>P114747073</t>
+  </si>
+  <si>
+    <t>A900785032</t>
+  </si>
+  <si>
+    <t>A235543011</t>
+  </si>
+  <si>
+    <t>N147648986</t>
+  </si>
+  <si>
+    <t>T124988053</t>
+  </si>
+  <si>
+    <t>A111037121</t>
+  </si>
+  <si>
+    <t>F967569039</t>
+  </si>
+  <si>
+    <t>D984552198</t>
+  </si>
+  <si>
+    <t>J113109575</t>
+  </si>
+  <si>
+    <t>O854111669</t>
+  </si>
+  <si>
+    <t>V219787708</t>
+  </si>
+  <si>
+    <t>I193090784</t>
+  </si>
+  <si>
+    <t>A218252780</t>
+  </si>
+  <si>
+    <t>F981431434</t>
+  </si>
+  <si>
+    <t>F279200327</t>
+  </si>
+  <si>
+    <t>X820830776</t>
+  </si>
+  <si>
+    <t>S885983295</t>
+  </si>
+  <si>
+    <t>K956227444</t>
+  </si>
+  <si>
+    <t>U108289627</t>
+  </si>
+  <si>
+    <t>N229974065</t>
+  </si>
+  <si>
+    <t>F222829810</t>
+  </si>
+  <si>
+    <t>N255655399</t>
+  </si>
+  <si>
+    <t>U991521125</t>
+  </si>
+  <si>
+    <t>O149854699</t>
+  </si>
+  <si>
+    <t>T935097425</t>
+  </si>
+  <si>
+    <t>L960075154</t>
+  </si>
+  <si>
+    <t>E875642311</t>
+  </si>
+  <si>
+    <t>E801740253</t>
+  </si>
+  <si>
+    <t>K242573199</t>
+  </si>
+  <si>
+    <t>P817490753</t>
+  </si>
+  <si>
+    <t>B853262905</t>
+  </si>
+  <si>
+    <t>F202549311</t>
+  </si>
+  <si>
+    <t>I907017735</t>
+  </si>
+  <si>
+    <t>G270157175</t>
+  </si>
+  <si>
+    <t>B854684790</t>
+  </si>
+  <si>
+    <t>F208074117</t>
+  </si>
+  <si>
+    <t>S916379661</t>
+  </si>
+  <si>
+    <t>D941933751</t>
+  </si>
+  <si>
+    <t>U933744691</t>
+  </si>
+  <si>
+    <t>O160115722</t>
+  </si>
+  <si>
+    <t>G933996783</t>
+  </si>
+  <si>
+    <t>T297308363</t>
+  </si>
+  <si>
+    <t>U293400465</t>
+  </si>
+  <si>
+    <t>D100143406</t>
+  </si>
+  <si>
+    <t>S879834834</t>
+  </si>
+  <si>
+    <t>I236177728</t>
+  </si>
+  <si>
+    <t>X883138428</t>
+  </si>
+  <si>
+    <t>M836427536</t>
+  </si>
+  <si>
+    <t>Q196291239</t>
+  </si>
+  <si>
+    <t>H924625521</t>
+  </si>
+  <si>
+    <t>N874547707</t>
+  </si>
+  <si>
+    <t>R147397281</t>
+  </si>
+  <si>
+    <t>H859731852</t>
+  </si>
+  <si>
+    <t>S850552791</t>
+  </si>
+  <si>
+    <t>B172204447</t>
+  </si>
+  <si>
+    <t>O899487937</t>
+  </si>
+  <si>
+    <t>J900143523</t>
+  </si>
+  <si>
+    <t>U147353460</t>
+  </si>
+  <si>
+    <t>G824649224</t>
+  </si>
+  <si>
+    <t>J900214983</t>
+  </si>
+  <si>
+    <t>C918461641</t>
+  </si>
+  <si>
+    <t>H886351708</t>
+  </si>
+  <si>
+    <t>H805251009</t>
+  </si>
+  <si>
+    <t>H238465404</t>
+  </si>
+  <si>
+    <t>N180676457</t>
+  </si>
+  <si>
+    <t>E930570614</t>
+  </si>
+  <si>
+    <t>L261541153</t>
+  </si>
+  <si>
+    <t>C131144512</t>
+  </si>
+  <si>
+    <t>V955921906</t>
+  </si>
+  <si>
+    <t>C935193268</t>
+  </si>
+  <si>
+    <t>M229444347</t>
+  </si>
+  <si>
+    <t>L206872575</t>
+  </si>
+  <si>
+    <t>I834677370</t>
+  </si>
+  <si>
+    <t>M250405263</t>
+  </si>
+  <si>
+    <t>F170905187</t>
+  </si>
+  <si>
+    <t>J840608001</t>
+  </si>
+  <si>
+    <t>T248480994</t>
+  </si>
+  <si>
+    <t>O802305775</t>
+  </si>
+  <si>
+    <t>E231568463</t>
+  </si>
+  <si>
+    <t>E290862077</t>
+  </si>
+  <si>
+    <t>X271943873</t>
+  </si>
+  <si>
+    <t>O218063820</t>
+  </si>
+  <si>
+    <t>P291463478</t>
+  </si>
+  <si>
+    <t>J818325733</t>
+  </si>
+  <si>
+    <t>W999329804</t>
+  </si>
+  <si>
+    <t>P846136820</t>
+  </si>
+  <si>
+    <t>U979610561</t>
+  </si>
+  <si>
+    <t>V214545353</t>
+  </si>
+  <si>
+    <t>O108799455</t>
+  </si>
+  <si>
+    <t>M136844846</t>
+  </si>
+  <si>
+    <t>I241411264</t>
+  </si>
+  <si>
+    <t>H885346114</t>
+  </si>
+  <si>
+    <t>T188998204</t>
+  </si>
+  <si>
+    <t>K101806051</t>
+  </si>
+  <si>
+    <t>Z119810338</t>
+  </si>
+  <si>
+    <t>N205297338</t>
+  </si>
+  <si>
+    <t>M256503759</t>
+  </si>
+  <si>
+    <t>V923392159</t>
+  </si>
+  <si>
+    <t>T248894238</t>
+  </si>
+  <si>
+    <t>G213064268</t>
+  </si>
+  <si>
+    <t>P824039528</t>
+  </si>
+  <si>
+    <t>P196753662</t>
+  </si>
+  <si>
+    <t>X240132199</t>
+  </si>
+  <si>
+    <t>K141699521</t>
+  </si>
+  <si>
+    <t>C273791255</t>
+  </si>
+  <si>
+    <t>M255824026</t>
+  </si>
+  <si>
+    <t>J973679585</t>
+  </si>
+  <si>
+    <t>U969129464</t>
+  </si>
+  <si>
+    <t>M108419388</t>
+  </si>
+  <si>
+    <t>T287930853</t>
+  </si>
+  <si>
+    <t>O934264330</t>
+  </si>
+  <si>
+    <t>X105466990</t>
+  </si>
+  <si>
+    <t>B801766512</t>
+  </si>
+  <si>
+    <t>V896345473</t>
+  </si>
+  <si>
+    <t>M965294454</t>
+  </si>
+  <si>
+    <t>A995512287</t>
+  </si>
+  <si>
+    <t>E284608405</t>
+  </si>
+  <si>
+    <t>V924590195</t>
+  </si>
+  <si>
+    <t>R253486424</t>
+  </si>
+  <si>
+    <t>A956881225</t>
+  </si>
+  <si>
+    <t>R178195762</t>
+  </si>
+  <si>
+    <t>M907409811</t>
+  </si>
+  <si>
+    <t>O202310701</t>
+  </si>
+  <si>
+    <t>T251337733</t>
+  </si>
+  <si>
+    <t>H875841808</t>
+  </si>
+  <si>
+    <t>Z897368786</t>
+  </si>
+  <si>
+    <t>I939596952</t>
+  </si>
+  <si>
+    <t>J147801391</t>
+  </si>
+  <si>
+    <t>G106362328</t>
+  </si>
+  <si>
+    <t>S834246627</t>
+  </si>
+  <si>
+    <t>Q125618726</t>
+  </si>
+  <si>
+    <t>M131207610</t>
+  </si>
+  <si>
+    <t>C219114932</t>
+  </si>
+  <si>
+    <t>P269632421</t>
+  </si>
+  <si>
+    <t>S135681135</t>
+  </si>
+  <si>
+    <t>K932256078</t>
+  </si>
+  <si>
+    <t>W810760796</t>
+  </si>
+  <si>
+    <t>F118304915</t>
+  </si>
+  <si>
+    <t>T838680895</t>
+  </si>
+  <si>
+    <t>V852107546</t>
+  </si>
+  <si>
+    <t>K255872996</t>
+  </si>
+  <si>
+    <t>D183445787</t>
+  </si>
+  <si>
+    <t>S107957106</t>
+  </si>
+  <si>
+    <t>W143433746</t>
+  </si>
+  <si>
+    <t>V947940479</t>
+  </si>
+  <si>
+    <t>H805737522</t>
+  </si>
+  <si>
+    <t>T227935065</t>
+  </si>
+  <si>
+    <t>K828170134</t>
+  </si>
+  <si>
+    <t>I969825144</t>
+  </si>
+  <si>
+    <t>N199731292</t>
+  </si>
+  <si>
+    <t>I803158706</t>
+  </si>
+  <si>
+    <t>Q842441492</t>
+  </si>
+  <si>
+    <t>U897711667</t>
+  </si>
+  <si>
+    <t>N937897197</t>
+  </si>
+  <si>
+    <t>X223691911</t>
+  </si>
+  <si>
+    <t>O882867621</t>
+  </si>
+  <si>
+    <t>C217420875</t>
+  </si>
+  <si>
+    <t>G286244956</t>
+  </si>
+  <si>
+    <t>M923179774</t>
+  </si>
+  <si>
+    <t>U896146844</t>
+  </si>
+  <si>
+    <t>O993337681</t>
+  </si>
+  <si>
+    <t>J973521146</t>
+  </si>
+  <si>
+    <t>E189484181</t>
+  </si>
+  <si>
+    <t>O259852770</t>
+  </si>
+  <si>
+    <t>Z929076693</t>
+  </si>
+  <si>
+    <t>H971992011</t>
+  </si>
+  <si>
+    <t>Z148364229</t>
+  </si>
+  <si>
+    <t>X247879159</t>
+  </si>
+  <si>
+    <t>A890131824</t>
+  </si>
+  <si>
+    <t>G270381537</t>
+  </si>
+  <si>
+    <t>R266548166</t>
+  </si>
+  <si>
+    <t>F889682753</t>
+  </si>
+  <si>
+    <t>E832039267</t>
+  </si>
+  <si>
+    <t>T228435313</t>
+  </si>
+  <si>
+    <t>J273518314</t>
+  </si>
+  <si>
+    <t>K248361924</t>
+  </si>
+  <si>
+    <t>L878458889</t>
+  </si>
+  <si>
+    <t>V992290728</t>
+  </si>
+  <si>
+    <t>A262592833</t>
+  </si>
+  <si>
+    <t>C916913295</t>
+  </si>
+  <si>
+    <t>D116143118</t>
+  </si>
+  <si>
+    <t>C119465432</t>
+  </si>
+  <si>
+    <t>M821924260</t>
+  </si>
+  <si>
+    <t>D869811069</t>
+  </si>
+  <si>
+    <t>X298547679</t>
+  </si>
+  <si>
+    <t>N101867181</t>
+  </si>
+  <si>
+    <t>M852524307</t>
+  </si>
+  <si>
+    <t>O937399812</t>
+  </si>
+  <si>
+    <t>I886368137</t>
+  </si>
+  <si>
+    <t>W979061043</t>
+  </si>
+  <si>
+    <t>X123000141</t>
+  </si>
+  <si>
+    <t>J177647190</t>
+  </si>
+  <si>
+    <t>Z960698579</t>
+  </si>
+  <si>
+    <t>T806976335</t>
+  </si>
+  <si>
+    <t>H906138712</t>
+  </si>
+  <si>
+    <t>O177274610</t>
+  </si>
+  <si>
+    <t>Z292959061</t>
+  </si>
+  <si>
+    <t>T932689001</t>
+  </si>
+  <si>
+    <t>O161310623</t>
+  </si>
+  <si>
+    <t>D153661193</t>
+  </si>
+  <si>
+    <t>K923768949</t>
+  </si>
+  <si>
+    <t>P290350338</t>
+  </si>
+  <si>
+    <t>S966425412</t>
+  </si>
+  <si>
+    <t>C256112705</t>
+  </si>
+  <si>
+    <t>J813491741</t>
+  </si>
+  <si>
+    <t>D942224966</t>
+  </si>
+  <si>
+    <t>H262045578</t>
+  </si>
+  <si>
+    <t>L912094161</t>
+  </si>
+  <si>
+    <t>U194734557</t>
+  </si>
+  <si>
+    <t>R918137651</t>
+  </si>
+  <si>
+    <t>H211133001</t>
+  </si>
+  <si>
+    <t>G917333231</t>
+  </si>
+  <si>
+    <t>W168875213</t>
+  </si>
+  <si>
+    <t>N849026188</t>
+  </si>
+  <si>
+    <t>D855493955</t>
+  </si>
+  <si>
+    <t>G801368717</t>
+  </si>
+  <si>
+    <t>A233205867</t>
+  </si>
+  <si>
+    <t>P932105873</t>
+  </si>
+  <si>
+    <t>W193304647</t>
+  </si>
+  <si>
+    <t>S862872584</t>
+  </si>
+  <si>
+    <t>T244145047</t>
+  </si>
+  <si>
+    <t>W969087857</t>
+  </si>
+  <si>
+    <t>M177895269</t>
+  </si>
+  <si>
+    <t>Z863382610</t>
+  </si>
+  <si>
+    <t>L162332290</t>
+  </si>
+  <si>
+    <t>W117176770</t>
+  </si>
+  <si>
+    <t>G235935391</t>
+  </si>
+  <si>
+    <t>X118625510</t>
+  </si>
+  <si>
+    <t>A137284086</t>
+  </si>
+  <si>
+    <t>T825745136</t>
+  </si>
+  <si>
+    <t>O290219646</t>
+  </si>
+  <si>
+    <t>E211605303</t>
+  </si>
+  <si>
+    <t>U874707049</t>
+  </si>
+  <si>
+    <t>E259364589</t>
+  </si>
+  <si>
+    <t>R242573934</t>
+  </si>
+  <si>
+    <t>M918526145</t>
+  </si>
+  <si>
+    <t>F940943531</t>
+  </si>
+  <si>
+    <t>R875375146</t>
+  </si>
+  <si>
+    <t>A244219493</t>
+  </si>
+  <si>
+    <t>M886114600</t>
+  </si>
+  <si>
+    <t>A257730250</t>
+  </si>
+  <si>
+    <t>R124076369</t>
+  </si>
+  <si>
+    <t>J257036933</t>
+  </si>
+  <si>
+    <t>L100693381</t>
+  </si>
+  <si>
+    <t>I188906168</t>
+  </si>
+  <si>
+    <t>N866932176</t>
+  </si>
+  <si>
+    <t>A833429083</t>
+  </si>
+  <si>
+    <t>Q230325472</t>
+  </si>
+  <si>
+    <t>E964007246</t>
+  </si>
+  <si>
+    <t>S894699368</t>
+  </si>
+  <si>
+    <t>U824990129</t>
+  </si>
+  <si>
+    <t>J135033561</t>
+  </si>
+  <si>
+    <t>C810772485</t>
+  </si>
+  <si>
+    <t>Q922770654</t>
+  </si>
+  <si>
+    <t>F266521924</t>
+  </si>
+  <si>
+    <t>P972908438</t>
+  </si>
+  <si>
+    <t>D885071823</t>
+  </si>
+  <si>
+    <t>X939971513</t>
+  </si>
+  <si>
+    <t>X242559465</t>
+  </si>
+  <si>
+    <t>F296714884</t>
+  </si>
+  <si>
+    <t>S233069142</t>
+  </si>
+  <si>
+    <t>O160902921</t>
+  </si>
+  <si>
+    <t>V178105511</t>
+  </si>
+  <si>
+    <t>U903032286</t>
+  </si>
+  <si>
+    <t>R875208668</t>
+  </si>
+  <si>
+    <t>Q979962897</t>
+  </si>
+  <si>
+    <t>O893507323</t>
+  </si>
+  <si>
+    <t>V188760908</t>
+  </si>
+  <si>
+    <t>Q295787336</t>
+  </si>
+  <si>
+    <t>P185859206</t>
+  </si>
+  <si>
+    <t>Q930784377</t>
+  </si>
+  <si>
+    <t>Z150103790</t>
+  </si>
+  <si>
+    <t>U986262879</t>
+  </si>
+  <si>
+    <t>G949037179</t>
+  </si>
+  <si>
+    <t>G262158926</t>
+  </si>
+  <si>
+    <t>V892824786</t>
+  </si>
+  <si>
+    <t>G133529599</t>
+  </si>
+  <si>
+    <t>F971480792</t>
+  </si>
+  <si>
+    <t>C151191295</t>
+  </si>
+  <si>
+    <t>Z904780212</t>
+  </si>
+  <si>
+    <t>K296310844</t>
+  </si>
+  <si>
+    <t>F886020484</t>
+  </si>
+  <si>
+    <t>W268414294</t>
+  </si>
+  <si>
+    <t>V827038421</t>
+  </si>
+  <si>
+    <t>L285954447</t>
+  </si>
+  <si>
+    <t>T805119998</t>
+  </si>
+  <si>
+    <t>D263322534</t>
+  </si>
+  <si>
+    <t>W250840744</t>
+  </si>
+  <si>
+    <t>N286614908</t>
+  </si>
+  <si>
+    <t>N250801757</t>
+  </si>
+  <si>
+    <t>E828865268</t>
+  </si>
+  <si>
+    <t>M822098849</t>
+  </si>
+  <si>
+    <t>X236653783</t>
+  </si>
+  <si>
+    <t>U117437720</t>
+  </si>
+  <si>
+    <t>I975130281</t>
+  </si>
+  <si>
+    <t>K176611302</t>
+  </si>
+  <si>
+    <t>W107854169</t>
+  </si>
+  <si>
+    <t>J940855011</t>
+  </si>
+  <si>
+    <t>J912723942</t>
+  </si>
+  <si>
+    <t>L953324660</t>
+  </si>
+  <si>
+    <t>L287266888</t>
+  </si>
+  <si>
+    <t>Q953954484</t>
+  </si>
+  <si>
+    <t>W971842073</t>
+  </si>
+  <si>
+    <t>U227917773</t>
+  </si>
+  <si>
+    <t>M126654901</t>
+  </si>
+  <si>
+    <t>M120511685</t>
+  </si>
+  <si>
+    <t>S886175911</t>
+  </si>
+  <si>
+    <t>W210079529</t>
+  </si>
+  <si>
+    <t>K208052839</t>
+  </si>
+  <si>
+    <t>B987330521</t>
+  </si>
+  <si>
+    <t>X861600970</t>
+  </si>
+  <si>
+    <t>Q938208454</t>
+  </si>
+  <si>
+    <t>J916537620</t>
+  </si>
+  <si>
+    <t>K241765611</t>
+  </si>
+  <si>
+    <t>H839449915</t>
+  </si>
+  <si>
+    <t>K147227565</t>
+  </si>
+  <si>
+    <t>M857746509</t>
+  </si>
+  <si>
+    <t>E865305927</t>
+  </si>
+  <si>
+    <t>G130046431</t>
+  </si>
+  <si>
+    <t>R910396943</t>
+  </si>
+  <si>
+    <t>B243709480</t>
+  </si>
+  <si>
+    <t>Z881786269</t>
+  </si>
+  <si>
+    <t>E964770164</t>
+  </si>
+  <si>
+    <t>N291243457</t>
+  </si>
+  <si>
+    <t>A280271499</t>
+  </si>
+  <si>
+    <t>P941150993</t>
+  </si>
+  <si>
+    <t>P166583518</t>
+  </si>
+  <si>
+    <t>U133810327</t>
+  </si>
+  <si>
+    <t>Z190303774</t>
+  </si>
+  <si>
+    <t>O147463976</t>
+  </si>
+  <si>
+    <t>I971842771</t>
+  </si>
+  <si>
+    <t>Z813466769</t>
+  </si>
+  <si>
+    <t>H805254500</t>
+  </si>
+  <si>
+    <t>Q188684711</t>
+  </si>
+  <si>
+    <t>U196360171</t>
+  </si>
+  <si>
+    <t>A829893904</t>
+  </si>
+  <si>
+    <t>K229057469</t>
+  </si>
+  <si>
+    <t>G122043828</t>
+  </si>
+  <si>
+    <t>C183773712</t>
+  </si>
+  <si>
+    <t>Z834064569</t>
+  </si>
+  <si>
+    <t>P286964271</t>
+  </si>
+  <si>
+    <t>C149085791</t>
+  </si>
+  <si>
+    <t>V971648671</t>
+  </si>
+  <si>
+    <t>I857451481</t>
+  </si>
+  <si>
+    <t>W941346942</t>
+  </si>
+  <si>
+    <t>U898690952</t>
+  </si>
+  <si>
+    <t>E209102842</t>
+  </si>
+  <si>
+    <t>S164014237</t>
+  </si>
+  <si>
+    <t>B199690303</t>
+  </si>
+  <si>
+    <t>R817662073</t>
+  </si>
+  <si>
+    <t>U933905363</t>
+  </si>
+  <si>
+    <t>I182225744</t>
+  </si>
+  <si>
+    <t>Q946570665</t>
+  </si>
+  <si>
+    <t>T160108702</t>
+  </si>
+  <si>
+    <t>E807734660</t>
+  </si>
+  <si>
+    <t>P207273846</t>
+  </si>
+  <si>
+    <t>P812680346</t>
+  </si>
+  <si>
+    <t>V220658647</t>
+  </si>
+  <si>
+    <t>E892659445</t>
+  </si>
+  <si>
+    <t>I296342643</t>
+  </si>
+  <si>
+    <t>Z852315676</t>
+  </si>
+  <si>
+    <t>D800016720</t>
+  </si>
+  <si>
+    <t>G939975760</t>
+  </si>
+  <si>
+    <t>B853888972</t>
+  </si>
+  <si>
+    <t>R999493634</t>
+  </si>
+  <si>
+    <t>F828133851</t>
+  </si>
+  <si>
+    <t>V209651451</t>
+  </si>
+  <si>
+    <t>H138122297</t>
+  </si>
+  <si>
+    <t>I933748970</t>
+  </si>
+  <si>
+    <t>A874927517</t>
+  </si>
+  <si>
+    <t>Q834256274</t>
+  </si>
+  <si>
+    <t>K227450346</t>
+  </si>
+  <si>
+    <t>P890760265</t>
+  </si>
+  <si>
+    <t>T142918844</t>
+  </si>
+  <si>
+    <t>B221936901</t>
+  </si>
+  <si>
+    <t>J298334074</t>
+  </si>
+  <si>
+    <t>K951057504</t>
+  </si>
+  <si>
+    <t>Q299841439</t>
+  </si>
+  <si>
+    <t>X135159239</t>
+  </si>
+  <si>
+    <t>R219233087</t>
+  </si>
+  <si>
+    <t>U224847327</t>
+  </si>
+  <si>
+    <t>A108567281</t>
+  </si>
+  <si>
+    <t>Z132502106</t>
+  </si>
+  <si>
+    <t>G245705136</t>
+  </si>
+  <si>
+    <t>A250376025</t>
+  </si>
+  <si>
+    <t>D113846327</t>
+  </si>
+  <si>
+    <t>F251812123</t>
+  </si>
+  <si>
+    <t>S212507156</t>
+  </si>
+  <si>
+    <t>B894173043</t>
+  </si>
+  <si>
+    <t>E938550427</t>
+  </si>
+  <si>
+    <t>I219477569</t>
+  </si>
+  <si>
+    <t>V872388243</t>
+  </si>
+  <si>
+    <t>Z156891904</t>
+  </si>
+  <si>
+    <t>X201582968</t>
+  </si>
+  <si>
+    <t>B888732885</t>
+  </si>
+  <si>
+    <t>X824994057</t>
+  </si>
+  <si>
+    <t>I196812219</t>
+  </si>
+  <si>
+    <t>W939458428</t>
+  </si>
+  <si>
+    <t>S101785222</t>
+  </si>
+  <si>
+    <t>Q221419783</t>
+  </si>
+  <si>
+    <t>U251204061</t>
+  </si>
+  <si>
+    <t>K299326399</t>
+  </si>
+  <si>
+    <t>O157288047</t>
+  </si>
+  <si>
+    <t>C135050342</t>
+  </si>
+  <si>
+    <t>W174793893</t>
+  </si>
+  <si>
+    <t>L125689105</t>
+  </si>
+  <si>
+    <t>L992742380</t>
+  </si>
+  <si>
+    <t>M115402624</t>
+  </si>
+  <si>
+    <t>W890567628</t>
+  </si>
+  <si>
+    <t>S168334918</t>
+  </si>
+  <si>
+    <t>H168797104</t>
+  </si>
+  <si>
+    <t>K282787999</t>
+  </si>
+  <si>
+    <t>F145441965</t>
+  </si>
+  <si>
+    <t>Q933660356</t>
+  </si>
+  <si>
+    <t>T909410318</t>
+  </si>
+  <si>
+    <t>K870450676</t>
+  </si>
+  <si>
+    <t>P816086611</t>
+  </si>
+  <si>
+    <t>S816681655</t>
+  </si>
+  <si>
+    <t>M271353773</t>
+  </si>
+  <si>
+    <t>F905222080</t>
+  </si>
+  <si>
+    <t>O879342366</t>
+  </si>
+  <si>
+    <t>C139335613</t>
+  </si>
+  <si>
+    <t>H142625970</t>
+  </si>
+  <si>
+    <t>K977983938</t>
+  </si>
+  <si>
+    <t>S867462391</t>
+  </si>
+  <si>
+    <t>Q857639431</t>
+  </si>
+  <si>
+    <t>H214436652</t>
+  </si>
+  <si>
+    <t>F828256760</t>
+  </si>
+  <si>
+    <t>D955564004</t>
+  </si>
+  <si>
+    <t>Z117181370</t>
+  </si>
+  <si>
+    <t>G204822118</t>
+  </si>
+  <si>
+    <t>M964189785</t>
+  </si>
+  <si>
+    <t>C214694506</t>
+  </si>
+  <si>
+    <t>L838861553</t>
+  </si>
+  <si>
+    <t>O252605915</t>
+  </si>
+  <si>
+    <t>U248142767</t>
+  </si>
+  <si>
+    <t>X109375212</t>
+  </si>
+  <si>
+    <t>S177700760</t>
+  </si>
+  <si>
+    <t>F199665626</t>
+  </si>
+  <si>
+    <t>G817073729</t>
+  </si>
+  <si>
+    <t>B961019438</t>
+  </si>
+  <si>
+    <t>W113315842</t>
+  </si>
+  <si>
+    <t>T823705072</t>
+  </si>
+  <si>
+    <t>L261980294</t>
+  </si>
+  <si>
+    <t>X200847728</t>
+  </si>
+  <si>
+    <t>V223003500</t>
+  </si>
+  <si>
+    <t>O189183419</t>
+  </si>
+  <si>
+    <t>I284894963</t>
+  </si>
+  <si>
+    <t>B988015210</t>
+  </si>
+  <si>
+    <t>E165810456</t>
+  </si>
+  <si>
+    <t>F282824957</t>
+  </si>
+  <si>
+    <t>C832142338</t>
+  </si>
+  <si>
+    <t>X904623675</t>
+  </si>
+  <si>
+    <t>R271540494</t>
+  </si>
+  <si>
+    <t>M945603671</t>
+  </si>
+  <si>
+    <t>O893138257</t>
+  </si>
+  <si>
+    <t>B141876851</t>
+  </si>
+  <si>
+    <t>C175850371</t>
+  </si>
+  <si>
+    <t>A838278773</t>
+  </si>
+  <si>
+    <t>A184893462</t>
+  </si>
+  <si>
+    <t>A865217919</t>
+  </si>
+  <si>
+    <t>V128971636</t>
+  </si>
+  <si>
+    <t>Z233659722</t>
+  </si>
+  <si>
+    <t>C117389886</t>
+  </si>
+  <si>
+    <t>A965443975</t>
+  </si>
+  <si>
+    <t>B166424755</t>
+  </si>
+  <si>
+    <t>L826155228</t>
+  </si>
+  <si>
+    <t>W184760717</t>
+  </si>
+  <si>
+    <t>L217258018</t>
+  </si>
+  <si>
+    <t>L238816663</t>
+  </si>
+  <si>
+    <t>N872100055</t>
+  </si>
+  <si>
+    <t>I260286790</t>
+  </si>
+  <si>
+    <t>J844232889</t>
+  </si>
+  <si>
+    <t>R935434668</t>
+  </si>
+  <si>
+    <t>T162253942</t>
+  </si>
+  <si>
+    <t>T978242979</t>
+  </si>
+  <si>
+    <t>D164523622</t>
+  </si>
+  <si>
+    <t>S949130629</t>
+  </si>
+  <si>
+    <t>H800182894</t>
+  </si>
+  <si>
+    <t>H185499732</t>
+  </si>
+  <si>
+    <t>W951985728</t>
+  </si>
+  <si>
+    <t>Q839387603</t>
+  </si>
+  <si>
+    <t>E963746495</t>
+  </si>
+  <si>
+    <t>M218267629</t>
+  </si>
+  <si>
+    <t>A261964120</t>
+  </si>
+  <si>
+    <t>C100357829</t>
+  </si>
+  <si>
+    <t>Z864613892</t>
+  </si>
+  <si>
+    <t>A108941554</t>
+  </si>
+  <si>
+    <t>K885181900</t>
+  </si>
+  <si>
+    <t>R903229580</t>
+  </si>
+  <si>
+    <t>G219612491</t>
+  </si>
+  <si>
+    <t>W903966851</t>
+  </si>
+  <si>
+    <t>X176025547</t>
+  </si>
+  <si>
+    <t>C901527732</t>
+  </si>
+  <si>
+    <t>D966324294</t>
+  </si>
+  <si>
+    <t>G923653182</t>
+  </si>
+  <si>
+    <t>A961308902</t>
+  </si>
+  <si>
+    <t>W132614182</t>
+  </si>
+  <si>
+    <t>W895665638</t>
+  </si>
+  <si>
+    <t>V931972778</t>
+  </si>
+  <si>
+    <t>P854550325</t>
+  </si>
+  <si>
+    <t>I138009089</t>
+  </si>
+  <si>
+    <t>H208961591</t>
+  </si>
+  <si>
+    <t>S880216771</t>
+  </si>
+  <si>
+    <t>R254457187</t>
+  </si>
+  <si>
+    <t>S900423078</t>
+  </si>
+  <si>
+    <t>F877606583</t>
+  </si>
+  <si>
+    <t>V823334495</t>
+  </si>
+  <si>
+    <t>G955639296</t>
+  </si>
+  <si>
+    <t>N837086503</t>
+  </si>
+  <si>
+    <t>V260338982</t>
+  </si>
+  <si>
+    <t>H230083240</t>
+  </si>
+  <si>
+    <t>W298267838</t>
+  </si>
+  <si>
+    <t>G832008853</t>
+  </si>
+  <si>
+    <t>E282107629</t>
+  </si>
+  <si>
+    <t>G272631343</t>
+  </si>
+  <si>
+    <t>Z986166161</t>
+  </si>
+  <si>
+    <t>A839146770</t>
+  </si>
+  <si>
+    <t>K215695728</t>
+  </si>
+  <si>
+    <t>K890372253</t>
+  </si>
+  <si>
+    <t>D892190584</t>
+  </si>
+  <si>
+    <t>J946648403</t>
+  </si>
+  <si>
+    <t>I942978824</t>
+  </si>
+  <si>
+    <t>P869787067</t>
+  </si>
+  <si>
+    <t>C236602566</t>
+  </si>
+  <si>
+    <t>J809781705</t>
+  </si>
+  <si>
+    <t>P208368273</t>
+  </si>
+  <si>
+    <t>R964276269</t>
+  </si>
+  <si>
+    <t>U200323231</t>
+  </si>
+  <si>
+    <t>Z195379661</t>
+  </si>
+  <si>
+    <t>X129197625</t>
+  </si>
+  <si>
+    <t>B963284335</t>
+  </si>
+  <si>
+    <t>V198201578</t>
+  </si>
+  <si>
+    <t>C191054557</t>
+  </si>
+  <si>
+    <t>M982987494</t>
+  </si>
+  <si>
+    <t>T902859871</t>
+  </si>
+  <si>
+    <t>I902270278</t>
+  </si>
+  <si>
+    <t>X927873253</t>
+  </si>
+  <si>
+    <t>P982216769</t>
+  </si>
+  <si>
+    <t>M275236317</t>
+  </si>
+  <si>
+    <t>D801674324</t>
+  </si>
+  <si>
+    <t>X989761709</t>
+  </si>
+  <si>
+    <t>A268722317</t>
+  </si>
+  <si>
+    <t>Z195510733</t>
+  </si>
+  <si>
+    <t>D880206362</t>
+  </si>
+  <si>
+    <t>H176237064</t>
+  </si>
+  <si>
+    <t>M992388083</t>
+  </si>
+  <si>
+    <t>F803817169</t>
+  </si>
+  <si>
+    <t>U239783518</t>
+  </si>
+  <si>
+    <t>E870680160</t>
+  </si>
+  <si>
+    <t>B838728377</t>
+  </si>
+  <si>
+    <t>N965183859</t>
+  </si>
+  <si>
+    <t>A252488537</t>
+  </si>
+  <si>
+    <t>P848615182</t>
+  </si>
+  <si>
+    <t>P868474061</t>
+  </si>
+  <si>
+    <t>F838725825</t>
+  </si>
+  <si>
+    <t>T988022247</t>
+  </si>
+  <si>
+    <t>Z888358316</t>
+  </si>
+  <si>
+    <t>C993348441</t>
+  </si>
+  <si>
+    <t>F178005513</t>
+  </si>
+  <si>
+    <t>I859768121</t>
+  </si>
+  <si>
+    <t>J960245897</t>
+  </si>
+  <si>
+    <t>A933878453</t>
+  </si>
+  <si>
+    <t>X892834497</t>
+  </si>
+  <si>
+    <t>X837669330</t>
+  </si>
+  <si>
+    <t>Q997311549</t>
+  </si>
+  <si>
+    <t>O916480121</t>
+  </si>
+  <si>
+    <t>G981257608</t>
+  </si>
+  <si>
+    <t>W834372618</t>
+  </si>
+  <si>
+    <t>R824098976</t>
+  </si>
+  <si>
+    <t>Q237906162</t>
+  </si>
+  <si>
+    <t>B199496985</t>
+  </si>
+  <si>
+    <t>P811768814</t>
+  </si>
+  <si>
+    <t>D959515141</t>
+  </si>
+  <si>
+    <t>O919198782</t>
+  </si>
+  <si>
+    <t>N145876615</t>
+  </si>
+  <si>
+    <t>Z143436275</t>
+  </si>
+  <si>
+    <t>U204335362</t>
+  </si>
+  <si>
+    <t>K232300737</t>
+  </si>
+  <si>
+    <t>K131978980</t>
+  </si>
+  <si>
+    <t>C157685787</t>
+  </si>
+  <si>
+    <t>B866396634</t>
+  </si>
+  <si>
+    <t>K120722034</t>
+  </si>
+  <si>
+    <t>T843333554</t>
+  </si>
+  <si>
+    <t>F255368760</t>
+  </si>
+  <si>
+    <t>W878294359</t>
+  </si>
+  <si>
+    <t>W228953383</t>
+  </si>
+  <si>
+    <t>B869305528</t>
+  </si>
+  <si>
+    <t>H170764268</t>
+  </si>
+  <si>
+    <t>K815079324</t>
+  </si>
+  <si>
+    <t>R232647669</t>
+  </si>
+  <si>
+    <t>U807024537</t>
+  </si>
+  <si>
+    <t>B903726661</t>
+  </si>
+  <si>
+    <t>G136307406</t>
+  </si>
+  <si>
+    <t>L982515746</t>
+  </si>
+  <si>
+    <t>R823495720</t>
+  </si>
+  <si>
+    <t>E205072905</t>
+  </si>
+  <si>
+    <t>K277846329</t>
+  </si>
+  <si>
+    <t>E219535924</t>
+  </si>
+  <si>
+    <t>P270377191</t>
+  </si>
+  <si>
+    <t>G845993736</t>
+  </si>
+  <si>
+    <t>B144662886</t>
+  </si>
+  <si>
+    <t>I815080731</t>
+  </si>
+  <si>
+    <t>G272581722</t>
+  </si>
+  <si>
+    <t>V949095468</t>
+  </si>
+  <si>
+    <t>X826183178</t>
+  </si>
+  <si>
+    <t>H889253521</t>
+  </si>
+  <si>
+    <t>U100563340</t>
+  </si>
+  <si>
+    <t>F179964093</t>
+  </si>
+  <si>
+    <t>E180877528</t>
+  </si>
+  <si>
+    <t>Q269305359</t>
+  </si>
+  <si>
+    <t>Q865375062</t>
+  </si>
+  <si>
+    <t>H262595377</t>
+  </si>
+  <si>
+    <t>V952140721</t>
+  </si>
+  <si>
+    <t>C873604302</t>
+  </si>
+  <si>
+    <t>S197648921</t>
+  </si>
+  <si>
+    <t>Z278200230</t>
+  </si>
+  <si>
+    <t>H258258772</t>
+  </si>
+  <si>
+    <t>G138069365</t>
+  </si>
+  <si>
+    <t>B847309700</t>
+  </si>
+  <si>
+    <t>K913120026</t>
+  </si>
+  <si>
+    <t>K241059949</t>
+  </si>
+  <si>
+    <t>R146801722</t>
+  </si>
+  <si>
+    <t>F980966545</t>
+  </si>
+  <si>
+    <t>A898981291</t>
+  </si>
+  <si>
+    <t>L852611957</t>
+  </si>
+  <si>
+    <t>L217184399</t>
+  </si>
+  <si>
+    <t>N866147999</t>
+  </si>
+  <si>
+    <t>G145212063</t>
+  </si>
+  <si>
+    <t>L241426557</t>
+  </si>
+  <si>
+    <t>C821754180</t>
+  </si>
+  <si>
+    <t>O823332941</t>
+  </si>
+  <si>
+    <t>K120903833</t>
+  </si>
+  <si>
+    <t>S978419344</t>
+  </si>
+  <si>
+    <t>N159049242</t>
+  </si>
+  <si>
+    <t>D887052380</t>
+  </si>
+  <si>
+    <t>R913289392</t>
+  </si>
+  <si>
+    <t>P138766365</t>
+  </si>
+  <si>
+    <t>E235739066</t>
+  </si>
+  <si>
+    <t>U101583006</t>
+  </si>
+  <si>
+    <t>V909422892</t>
+  </si>
+  <si>
+    <t>J805817348</t>
+  </si>
+  <si>
+    <t>Q174904031</t>
+  </si>
+  <si>
+    <t>V956181737</t>
+  </si>
+  <si>
+    <t>A925790459</t>
+  </si>
+  <si>
+    <t>M196572852</t>
+  </si>
+  <si>
+    <t>L287978678</t>
+  </si>
+  <si>
+    <t>K216290469</t>
+  </si>
+  <si>
+    <t>P162562657</t>
+  </si>
+  <si>
+    <t>C151557462</t>
+  </si>
+  <si>
+    <t>P832795017</t>
+  </si>
+  <si>
+    <t>M819244604</t>
+  </si>
+  <si>
+    <t>G885688090</t>
+  </si>
+  <si>
+    <t>L140265209</t>
+  </si>
+  <si>
+    <t>E923398764</t>
+  </si>
+  <si>
+    <t>L175101745</t>
+  </si>
+  <si>
+    <t>G978652742</t>
+  </si>
+  <si>
+    <t>E845960342</t>
+  </si>
+  <si>
+    <t>U962407812</t>
+  </si>
+  <si>
+    <t>X800205062</t>
+  </si>
+  <si>
+    <t>L978480258</t>
+  </si>
+  <si>
+    <t>H801858128</t>
+  </si>
+  <si>
+    <t>G154640253</t>
+  </si>
+  <si>
+    <t>B171537170</t>
+  </si>
+  <si>
+    <t>G271412791</t>
+  </si>
+  <si>
+    <t>M838361602</t>
+  </si>
+  <si>
+    <t>G800608632</t>
+  </si>
+  <si>
+    <t>H800602088</t>
+  </si>
+  <si>
+    <t>L948149931</t>
+  </si>
+  <si>
+    <t>V932464499</t>
+  </si>
+  <si>
+    <t>C152274757</t>
+  </si>
+  <si>
+    <t>I173214297</t>
+  </si>
+  <si>
+    <t>N850746039</t>
+  </si>
+  <si>
+    <t>Z948398785</t>
+  </si>
+  <si>
+    <t>V842975836</t>
+  </si>
+  <si>
+    <t>U153534828</t>
+  </si>
+  <si>
+    <t>K124660526</t>
+  </si>
+  <si>
+    <t>N832677960</t>
+  </si>
+  <si>
+    <t>G239666315</t>
+  </si>
+  <si>
+    <t>P252150674</t>
+  </si>
+  <si>
+    <t>E815113880</t>
+  </si>
+  <si>
+    <t>G902036976</t>
+  </si>
+  <si>
+    <t>T252300516</t>
+  </si>
+  <si>
+    <t>H955564982</t>
+  </si>
+  <si>
+    <t>S154646530</t>
+  </si>
+  <si>
+    <t>F133071408</t>
+  </si>
+  <si>
+    <t>K946581717</t>
+  </si>
+  <si>
+    <t>J968096190</t>
+  </si>
+  <si>
+    <t>A153156176</t>
+  </si>
+  <si>
+    <t>F265613012</t>
+  </si>
+  <si>
+    <t>D155798273</t>
+  </si>
+  <si>
+    <t>I953256035</t>
+  </si>
+  <si>
+    <t>W110114754</t>
+  </si>
+  <si>
+    <t>K290567456</t>
+  </si>
+  <si>
+    <t>L991845435</t>
+  </si>
+  <si>
+    <t>W172543939</t>
+  </si>
+  <si>
+    <t>V803284430</t>
+  </si>
+  <si>
+    <t>E291977826</t>
+  </si>
+  <si>
+    <t>O826122634</t>
+  </si>
+  <si>
+    <t>O870577023</t>
+  </si>
+  <si>
+    <t>A976153375</t>
+  </si>
+  <si>
+    <t>P265654261</t>
+  </si>
+  <si>
+    <t>R994528338</t>
+  </si>
+  <si>
+    <t>S138090494</t>
+  </si>
+  <si>
+    <t>L146431038</t>
+  </si>
+  <si>
+    <t>I241388591</t>
+  </si>
+  <si>
+    <t>V205442045</t>
+  </si>
+  <si>
+    <t>O109128254</t>
+  </si>
+  <si>
+    <t>M281424154</t>
+  </si>
+  <si>
+    <t>B800331186</t>
+  </si>
+  <si>
+    <t>K295359865</t>
+  </si>
+  <si>
+    <t>T299911064</t>
+  </si>
+  <si>
+    <t>T989037779</t>
+  </si>
+  <si>
+    <t>T845412898</t>
+  </si>
+  <si>
+    <t>L814123985</t>
+  </si>
+  <si>
+    <t>R283140842</t>
+  </si>
+  <si>
+    <t>B810716459</t>
+  </si>
+  <si>
+    <t>T895804186</t>
+  </si>
+  <si>
+    <t>L967047890</t>
+  </si>
+  <si>
+    <t>V843018170</t>
+  </si>
+  <si>
+    <t>W974502218</t>
+  </si>
+  <si>
+    <t>L979707445</t>
+  </si>
+  <si>
+    <t>O891330904</t>
+  </si>
+  <si>
+    <t>W174048544</t>
+  </si>
+  <si>
+    <t>O295114708</t>
+  </si>
+  <si>
+    <t>K262650660</t>
+  </si>
+  <si>
+    <t>L976855579</t>
+  </si>
+  <si>
+    <t>W869877493</t>
+  </si>
+  <si>
+    <t>G973281618</t>
+  </si>
+  <si>
+    <t>F804119939</t>
+  </si>
+  <si>
+    <t>H925351388</t>
+  </si>
+  <si>
+    <t>A947790560</t>
+  </si>
+  <si>
+    <t>Z151111090</t>
+  </si>
+  <si>
+    <t>A230172852</t>
+  </si>
+  <si>
+    <t>E207017028</t>
+  </si>
+  <si>
+    <t>D904406946</t>
+  </si>
+  <si>
+    <t>N967248693</t>
+  </si>
+  <si>
+    <t>U255992526</t>
+  </si>
+  <si>
+    <t>K814201804</t>
+  </si>
+  <si>
+    <t>Z801662519</t>
+  </si>
+  <si>
+    <t>J807524604</t>
+  </si>
+  <si>
+    <t>P109366619</t>
+  </si>
+  <si>
+    <t>U960238382</t>
+  </si>
+  <si>
+    <t>B980633672</t>
+  </si>
+  <si>
+    <t>N285133600</t>
+  </si>
+  <si>
+    <t>L862751306</t>
+  </si>
+  <si>
+    <t>J165417600</t>
+  </si>
+  <si>
+    <t>M873716172</t>
+  </si>
+  <si>
+    <t>A262600634</t>
+  </si>
+  <si>
+    <t>J834576758</t>
+  </si>
+  <si>
+    <t>L803750369</t>
+  </si>
+  <si>
+    <t>B142217436</t>
+  </si>
+  <si>
+    <t>V211672586</t>
+  </si>
+  <si>
+    <t>O245227456</t>
+  </si>
+  <si>
+    <t>M974425912</t>
+  </si>
+  <si>
+    <t>G279714854</t>
+  </si>
+  <si>
+    <t>H165045550</t>
+  </si>
+  <si>
+    <t>K976405480</t>
+  </si>
+  <si>
+    <t>X240998928</t>
+  </si>
+  <si>
+    <t>D937059591</t>
+  </si>
+  <si>
+    <t>B187431910</t>
+  </si>
+  <si>
+    <t>C800231253</t>
+  </si>
+  <si>
+    <t>E138745804</t>
+  </si>
+  <si>
+    <t>Z928115799</t>
+  </si>
+  <si>
+    <t>V812990316</t>
+  </si>
+  <si>
+    <t>G247462054</t>
+  </si>
+  <si>
+    <t>D919060907</t>
+  </si>
+  <si>
+    <t>T806031797</t>
+  </si>
+  <si>
+    <t>D997356771</t>
+  </si>
+  <si>
+    <t>D960166930</t>
+  </si>
+  <si>
+    <t>H114077688</t>
+  </si>
+  <si>
+    <t>F871814929</t>
+  </si>
+  <si>
+    <t>K105041985</t>
+  </si>
+  <si>
+    <t>V915575180</t>
+  </si>
+  <si>
+    <t>E934791806</t>
+  </si>
+  <si>
+    <t>E852075670</t>
+  </si>
+  <si>
+    <t>C958769368</t>
+  </si>
+  <si>
+    <t>L135534895</t>
+  </si>
+  <si>
+    <t>G263172644</t>
+  </si>
+  <si>
+    <t>S159312860</t>
+  </si>
+  <si>
+    <t>A883578960</t>
+  </si>
+  <si>
+    <t>L906944436</t>
+  </si>
+  <si>
+    <t>U925372805</t>
+  </si>
+  <si>
+    <t>I852552929</t>
+  </si>
+  <si>
+    <t>L887273054</t>
+  </si>
+  <si>
+    <t>E874259705</t>
+  </si>
+  <si>
+    <t>W991229432</t>
+  </si>
+  <si>
+    <t>P948291068</t>
+  </si>
+  <si>
+    <t>U291027002</t>
+  </si>
+  <si>
+    <t>H814540439</t>
+  </si>
+  <si>
+    <t>F254253582</t>
+  </si>
+  <si>
+    <t>A840581016</t>
+  </si>
+  <si>
+    <t>B989960732</t>
+  </si>
+  <si>
+    <t>N218196322</t>
+  </si>
+  <si>
+    <t>I941806230</t>
+  </si>
+  <si>
+    <t>F133995850</t>
+  </si>
+  <si>
+    <t>L257507910</t>
+  </si>
+  <si>
+    <t>F876411713</t>
+  </si>
+  <si>
+    <t>G897018848</t>
+  </si>
+  <si>
+    <t>V294150643</t>
+  </si>
+  <si>
+    <t>S148837285</t>
+  </si>
+  <si>
+    <t>D915653791</t>
+  </si>
+  <si>
+    <t>C118414904</t>
+  </si>
+  <si>
+    <t>Q884112272</t>
+  </si>
+  <si>
+    <t>M272008704</t>
+  </si>
+  <si>
+    <t>I955524723</t>
+  </si>
+  <si>
+    <t>F135945401</t>
+  </si>
+  <si>
+    <t>M994982767</t>
+  </si>
+  <si>
+    <t>E228629975</t>
+  </si>
+  <si>
+    <t>B920195348</t>
+  </si>
+  <si>
+    <t>C113352516</t>
+  </si>
+  <si>
+    <t>R242808861</t>
+  </si>
+  <si>
+    <t>F846491776</t>
+  </si>
+  <si>
+    <t>V250362501</t>
+  </si>
+  <si>
+    <t>V921217000</t>
+  </si>
+  <si>
+    <t>A875605770</t>
+  </si>
+  <si>
+    <t>G128270114</t>
+  </si>
+  <si>
+    <t>G245934440</t>
+  </si>
+  <si>
+    <t>O969731791</t>
+  </si>
+  <si>
+    <t>N273708268</t>
+  </si>
+  <si>
+    <t>N940953908</t>
+  </si>
+  <si>
+    <t>A258630795</t>
+  </si>
+  <si>
+    <t>P806251053</t>
+  </si>
+  <si>
+    <t>Z870910713</t>
+  </si>
+  <si>
+    <t>S221605923</t>
+  </si>
+  <si>
+    <t>L868080253</t>
+  </si>
+  <si>
+    <t>H222545393</t>
+  </si>
+  <si>
+    <t>K962375782</t>
+  </si>
+  <si>
+    <t>T195268113</t>
+  </si>
+  <si>
+    <t>R908683511</t>
+  </si>
+  <si>
+    <t>H814538573</t>
+  </si>
+  <si>
+    <t>F802459038</t>
+  </si>
+  <si>
+    <t>S856497815</t>
+  </si>
+  <si>
+    <t>I881538602</t>
+  </si>
+  <si>
+    <t>M921859224</t>
+  </si>
+  <si>
+    <t>H800005847</t>
+  </si>
+  <si>
+    <t>S166552534</t>
+  </si>
+  <si>
+    <t>P829716548</t>
+  </si>
+  <si>
+    <t>R974123300</t>
+  </si>
+  <si>
+    <t>Z260352734</t>
+  </si>
+  <si>
+    <t>F221842944</t>
+  </si>
+  <si>
+    <t>M883093220</t>
+  </si>
+  <si>
+    <t>O218309787</t>
+  </si>
+  <si>
+    <t>Q976327225</t>
+  </si>
+  <si>
+    <t>P814201594</t>
+  </si>
+  <si>
+    <t>O868227509</t>
+  </si>
+  <si>
+    <t>P961471859</t>
+  </si>
+  <si>
+    <t>E896429050</t>
+  </si>
+  <si>
+    <t>Z226558210</t>
+  </si>
+  <si>
+    <t>Z946524830</t>
+  </si>
+  <si>
+    <t>S843212880</t>
+  </si>
+  <si>
+    <t>M803626092</t>
+  </si>
+  <si>
+    <t>D813225984</t>
+  </si>
+  <si>
+    <t>U117925207</t>
+  </si>
+  <si>
+    <t>N183794872</t>
+  </si>
+  <si>
+    <t>W210581604</t>
+  </si>
+  <si>
+    <t>E174144670</t>
+  </si>
+  <si>
+    <t>X998692664</t>
+  </si>
+  <si>
+    <t>X186656205</t>
+  </si>
+  <si>
+    <t>W278403034</t>
+  </si>
+  <si>
+    <t>A820762462</t>
+  </si>
+  <si>
+    <t>P215562076</t>
+  </si>
+  <si>
+    <t>A996529124</t>
+  </si>
+  <si>
+    <t>J262555678</t>
+  </si>
+  <si>
+    <t>A108382751</t>
+  </si>
+  <si>
+    <t>V841943214</t>
+  </si>
+  <si>
+    <t>A963075317</t>
+  </si>
+  <si>
+    <t>R229233884</t>
+  </si>
+  <si>
+    <t>W976396227</t>
+  </si>
+  <si>
+    <t>R288057084</t>
+  </si>
+  <si>
+    <t>C243698465</t>
+  </si>
+  <si>
+    <t>C229926079</t>
+  </si>
+  <si>
+    <t>P846714539</t>
+  </si>
+  <si>
+    <t>S104565928</t>
+  </si>
+  <si>
+    <t>X123317034</t>
+  </si>
+  <si>
+    <t>F828001925</t>
+  </si>
+  <si>
+    <t>M181948719</t>
+  </si>
+  <si>
+    <t>Q257255657</t>
+  </si>
+  <si>
+    <t>F104301862</t>
+  </si>
+  <si>
+    <t>I101419560</t>
+  </si>
+  <si>
+    <t>Q153133345</t>
+  </si>
+  <si>
+    <t>O154331587</t>
+  </si>
+  <si>
+    <t>E877671954</t>
+  </si>
+  <si>
+    <t>D909072388</t>
+  </si>
+  <si>
+    <t>D920845809</t>
+  </si>
+  <si>
+    <t>H977979469</t>
+  </si>
+  <si>
+    <t>R125412823</t>
+  </si>
+  <si>
+    <t>O895013584</t>
+  </si>
+  <si>
+    <t>T943116831</t>
+  </si>
+  <si>
+    <t>I213132990</t>
+  </si>
+  <si>
+    <t>W115471334</t>
+  </si>
+  <si>
+    <t>M980965883</t>
+  </si>
+  <si>
+    <t>V164654323</t>
+  </si>
+  <si>
+    <t>C861051408</t>
+  </si>
+  <si>
+    <t>I819182503</t>
+  </si>
+  <si>
+    <t>H122682586</t>
+  </si>
+  <si>
+    <t>K296160399</t>
+  </si>
+  <si>
+    <t>F947727017</t>
+  </si>
+  <si>
+    <t>R997091098</t>
+  </si>
+  <si>
+    <t>E931804959</t>
+  </si>
+  <si>
+    <t>G954341448</t>
+  </si>
+  <si>
+    <t>M203086747</t>
+  </si>
+  <si>
+    <t>U180380694</t>
+  </si>
+  <si>
+    <t>A181757601</t>
+  </si>
+  <si>
+    <t>D931788048</t>
+  </si>
+  <si>
+    <t>L216562077</t>
+  </si>
+  <si>
+    <t>K987127531</t>
+  </si>
+  <si>
+    <t>U162319697</t>
+  </si>
+  <si>
+    <t>N983935066</t>
   </si>
 </sst>
 </file>
